--- a/mapping/AFO_OBI.xlsx
+++ b/mapping/AFO_OBI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="980">
   <si>
     <t>AFO_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>OBI_DESC</t>
   </si>
   <si>
+    <t>OBI_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
   </si>
   <si>
@@ -343,6 +346,15 @@
     <t>http://purl.allotrope.org/ontologies/result#AFR_0000951</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/common#AFC_0000166</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000275</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000900</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000407</t>
   </si>
   <si>
@@ -352,6 +364,15 @@
     <t>http://purl.allotrope.org/ontologies/result#AFR_0000917</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000880</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#Collection</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/common#AFC_0000160</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000004</t>
   </si>
   <si>
@@ -379,7 +400,7 @@
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000088</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000105</t>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000317</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000129</t>
@@ -430,6 +451,9 @@
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000648</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0002148</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000534</t>
   </si>
   <si>
@@ -442,7 +466,13 @@
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000746</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/function#AFFN_0000052</t>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000761</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0000225</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000811</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0001695</t>
@@ -469,12 +499,21 @@
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0002277</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0002389</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003385</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003564</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003305</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0003666</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/function#AFFN_0000031</t>
-  </si>
-  <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0000498</t>
   </si>
   <si>
@@ -484,18 +523,60 @@
     <t>http://purl.allotrope.org/ontologies/function#AFFN_0000142</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003634</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0002195</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0002196</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000085</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000105</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000154</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000114</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000341</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CARO_0000006</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000386</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000112</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000403</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000113</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000435</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0001023</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0001028</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001055</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001084</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0001085</t>
   </si>
   <si>
@@ -508,18 +589,30 @@
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000269</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003811</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0001801</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0000669</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/process#AFP_0003598</t>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003282</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0001993</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0002680</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000035</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003491</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0001348</t>
   </si>
   <si>
@@ -541,48 +634,126 @@
     <t>http://purl.allotrope.org/ontologies/process#AFP_0001878</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0001824</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001842</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003284</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003403</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0003331</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000148</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000147</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003464</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003424</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001004</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003572</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0003591</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003603</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003623</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001209</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001494</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003657</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003691</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003706</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003729</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003743</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0003770</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001219</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003779</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000005</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000065</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000252</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000253</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/realizable#AFRE_0000001</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/realizable#AFRE_0000005</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0000694</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/result#AFR_0000941</t>
-  </si>
-  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001501</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000935</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000955</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000961</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0000966</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000019</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0000984</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/result#AFR_0001064</t>
-  </si>
-  <si>
-    <t>http://purl.allotrope.org/ontologies/result#AFR_0001087</t>
-  </si>
-  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001111</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001142</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000325</t>
   </si>
   <si>
@@ -592,51 +763,138 @@
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001218</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001220</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001276</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001532</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001586</t>
   </si>
   <si>
+    <t>http://purl.org/linked-data/cube#DataSet</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000127</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001661</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001817</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001843</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000157</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001880</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001881</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001918</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000478</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001964</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002017</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002008</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002040</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000508</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0002208</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000233</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002209</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000321</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002210</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000323</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002211</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000322</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000255</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002480</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0002744</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002804</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000022</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000213</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000219</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000253</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000258</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000270</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000340</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000352</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000370</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000475</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/spatial#AFSP_0000001</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45235</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0001019</t>
+  </si>
+  <si>
     <t>http://qudt.org/schema/qudt#Dimension</t>
   </si>
   <si>
@@ -955,6 +1213,15 @@
     <t>{'label': 'duration', 'prefLabel': 'duration', 'altLabel': 'time', 'name': 'AFR_0000951'}</t>
   </si>
   <si>
+    <t>{'label': 'collection', 'prefLabel': 'collection', 'altLabel': None, 'name': 'AFC_0000166'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': 'material', 'altLabel': 'matter', 'name': 'AFM_0000275'}</t>
+  </si>
+  <si>
+    <t>{'label': 'log', 'prefLabel': 'log', 'altLabel': 'event log', 'name': 'AFR_0000900'}</t>
+  </si>
+  <si>
     <t>{'label': 'container', 'prefLabel': 'container', 'altLabel': 'vessel', 'name': 'AFE_0000407'}</t>
   </si>
   <si>
@@ -964,6 +1231,15 @@
     <t>{'label': 'identifier', 'prefLabel': 'identifier', 'altLabel': 'ID', 'name': 'AFR_0000917'}</t>
   </si>
   <si>
+    <t>{'label': 'energy', 'prefLabel': 'energy', 'altLabel': None, 'name': 'AFM_0000880'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Collection', 'prefLabel': None, 'altLabel': None, 'name': 'Collection'}</t>
+  </si>
+  <si>
+    <t>{'label': 'list', 'prefLabel': 'list', 'altLabel': 'sequence', 'name': 'AFC_0000160'}</t>
+  </si>
+  <si>
     <t>{'label': 'ion source', 'prefLabel': 'ion source', 'altLabel': 'ionization source', 'name': 'AFE_0000004'}</t>
   </si>
   <si>
@@ -991,7 +1267,7 @@
     <t>{'label': 'fraction collector', 'prefLabel': 'fraction collector', 'altLabel': None, 'name': 'AFE_0000088'}</t>
   </si>
   <si>
-    <t>{'label': 'flow cell', 'prefLabel': 'flow cell', 'altLabel': None, 'name': 'AFE_0000105'}</t>
+    <t>{'label': 'detector', 'prefLabel': 'detector', 'altLabel': None, 'name': 'AFE_0000317'}</t>
   </si>
   <si>
     <t>{'label': 'optical microscope', 'prefLabel': 'optical microscope', 'altLabel': 'light microscope', 'name': 'AFE_0000129'}</t>
@@ -1042,6 +1318,9 @@
     <t>{'label': 'mass spectrometer', 'prefLabel': 'mass spectrometer', 'altLabel': None, 'name': 'AFE_0000648'}</t>
   </si>
   <si>
+    <t>{'label': 'controller', 'prefLabel': 'controller', 'altLabel': 'regulator', 'name': 'AFE_0002148'}</t>
+  </si>
+  <si>
     <t>{'label': 'electron capture detector', 'prefLabel': 'electron capture detector', 'altLabel': 'ECD', 'name': 'AFE_0000534'}</t>
   </si>
   <si>
@@ -1054,7 +1333,13 @@
     <t>{'label': 'syringe', 'prefLabel': 'syringe', 'altLabel': None, 'name': 'AFE_0000746'}</t>
   </si>
   <si>
-    <t>{'label': 'to display', 'prefLabel': 'to display', 'altLabel': 'display function', 'name': 'AFFN_0000052'}</t>
+    <t>{'label': 'display', 'prefLabel': 'display', 'altLabel': 'display device', 'name': 'AFE_0000761'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid chromatography', 'prefLabel': 'liquid chromatography', 'altLabel': 'LC', 'name': 'AFP_0000225'}</t>
+  </si>
+  <si>
+    <t>{'label': 'split inlet', 'prefLabel': 'split inlet', 'altLabel': 'S', 'name': 'AFE_0000811'}</t>
   </si>
   <si>
     <t>{'label': 'computer', 'prefLabel': 'computer', 'altLabel': 'desktop computer', 'name': 'AFE_0001695'}</t>
@@ -1081,12 +1366,21 @@
     <t>{'label': 'evaporative light scattering detector', 'prefLabel': 'evaporative light scattering detector', 'altLabel': 'ELSD', 'name': 'AFE_0002277'}</t>
   </si>
   <si>
+    <t>{'label': 'calibration', 'prefLabel': 'calibration', 'altLabel': None, 'name': 'AFP_0002389'}</t>
+  </si>
+  <si>
+    <t>{'label': 'collecting', 'prefLabel': 'collecting', 'altLabel': 'collection', 'name': 'AFP_0003385'}</t>
+  </si>
+  <si>
+    <t>{'label': 'collecting state', 'prefLabel': 'collecting state', 'altLabel': 'collecting', 'name': 'AFP_0003564'}</t>
+  </si>
+  <si>
+    <t>{'label': 'observing', 'prefLabel': 'observing', 'altLabel': 'observation', 'name': 'AFP_0003305'}</t>
+  </si>
+  <si>
     <t>{'label': 'injecting', 'prefLabel': 'injecting', 'altLabel': 'injection', 'name': 'AFP_0003666'}</t>
   </si>
   <si>
-    <t>{'label': 'to separate material', 'prefLabel': 'to separate material', 'altLabel': 'material separation function', 'name': 'AFFN_0000031'}</t>
-  </si>
-  <si>
     <t>{'label': 'planning', 'prefLabel': 'planning', 'altLabel': None, 'name': 'AFP_0000498'}</t>
   </si>
   <si>
@@ -1096,22 +1390,64 @@
     <t>{'label': 'to stabilize', 'prefLabel': 'to stabilize', 'altLabel': 'stabilization function', 'name': 'AFFN_0000142'}</t>
   </si>
   <si>
+    <t>{'label': 'sampling', 'prefLabel': 'sampling', 'altLabel': None, 'name': 'AFP_0003634'}</t>
+  </si>
+  <si>
+    <t>{'label': 'positive charge', 'prefLabel': 'positive charge', 'altLabel': 'positive', 'name': 'PATO_0002195'}</t>
+  </si>
+  <si>
+    <t>{'label': 'negative charge', 'prefLabel': 'negative charge', 'altLabel': 'negative', 'name': 'PATO_0002196'}</t>
+  </si>
+  <si>
+    <t>{'label': 'dye', 'prefLabel': 'dye', 'altLabel': None, 'name': 'AFM_0000085'}</t>
+  </si>
+  <si>
     <t>{'label': 'portion of water', 'prefLabel': 'portion of water', 'altLabel': 'water', 'name': 'AFM_0000105'}</t>
   </si>
   <si>
+    <t>{'label': 'gas', 'prefLabel': 'gas', 'altLabel': None, 'name': 'AFM_0000154'}</t>
+  </si>
+  <si>
+    <t>{'label': 'gas', 'prefLabel': 'gas', 'altLabel': 'gaseous', 'name': 'AFQ_0000114'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell', 'prefLabel': 'cell', 'altLabel': None, 'name': 'AFM_0000341'}</t>
+  </si>
+  <si>
     <t>{'label': 'material anatomical entity', 'prefLabel': 'material anatomical entity', 'altLabel': None, 'name': 'CARO_0000006'}</t>
   </si>
   <si>
+    <t>{'label': 'solid', 'prefLabel': 'solid', 'altLabel': None, 'name': 'AFM_0000386'}</t>
+  </si>
+  <si>
+    <t>{'label': 'solid', 'prefLabel': 'solid', 'altLabel': 'solid state of matter', 'name': 'AFQ_0000112'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid', 'prefLabel': 'liquid', 'altLabel': None, 'name': 'AFM_0000403'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid', 'prefLabel': 'liquid', 'altLabel': 'liquid state of matter', 'name': 'AFQ_0000113'}</t>
+  </si>
+  <si>
+    <t>{'label': 'particle (physics)', 'prefLabel': 'particle (physics)', 'altLabel': 'particle', 'name': 'AFM_0000435'}</t>
+  </si>
+  <si>
     <t>{'label': 'proton', 'prefLabel': 'proton', 'altLabel': 'hydrogen nucleus', 'name': 'AFM_0001023'}</t>
   </si>
   <si>
     <t>{'label': 'atom', 'prefLabel': 'atom', 'altLabel': None, 'name': 'AFM_0001028'}</t>
   </si>
   <si>
+    <t>{'label': 'visible light', 'prefLabel': 'visible light', 'altLabel': 'light', 'name': 'AFM_0001055'}</t>
+  </si>
+  <si>
+    <t>{'label': 'group', 'prefLabel': 'group', 'altLabel': None, 'name': 'AFM_0001084'}</t>
+  </si>
+  <si>
     <t>{'label': 'organization', 'prefLabel': 'organization', 'altLabel': None, 'name': 'AFM_0001085'}</t>
   </si>
   <si>
-    <t>{'Organization'}</t>
+    <t>{'label': None, 'prefLabel': None, 'altLabel': None, 'name': 'Organization'}</t>
   </si>
   <si>
     <t>{'label': 'purification', 'prefLabel': 'purification', 'altLabel': None, 'name': 'AFP_0000812'}</t>
@@ -1120,18 +1456,30 @@
     <t>{'label': 'solvent role', 'prefLabel': 'solvent role', 'altLabel': 'solvent', 'name': 'AFRL_0000269'}</t>
   </si>
   <si>
+    <t>{'label': 'flowing', 'prefLabel': 'flowing', 'altLabel': 'flow', 'name': 'AFP_0003811'}</t>
+  </si>
+  <si>
     <t>{'label': 'imaging assay', 'prefLabel': 'imaging assay', 'altLabel': None, 'name': 'AFP_0001801'}</t>
   </si>
   <si>
     <t>{'label': 'electrophoresis', 'prefLabel': 'electrophoresis', 'altLabel': 'cataphoresis', 'name': 'AFP_0000669'}</t>
   </si>
   <si>
-    <t>{'label': 'data transformation', 'prefLabel': 'data transformation', 'altLabel': 'data processing', 'name': 'AFP_0003598'}</t>
+    <t>{'label': 'calculation', 'prefLabel': 'calculation', 'altLabel': 'computation', 'name': 'AFP_0003282'}</t>
+  </si>
+  <si>
+    <t>{'label': 'ionization', 'prefLabel': 'ionization', 'altLabel': 'ionization method', 'name': 'AFP_0001993'}</t>
   </si>
   <si>
     <t>{'label': 'assay', 'prefLabel': 'assay', 'altLabel': 'analysis', 'name': 'AFP_0002680'}</t>
   </si>
   <si>
+    <t>{'label': 'sample role', 'prefLabel': 'sample role', 'altLabel': 'sample', 'name': 'AFRL_0000035'}</t>
+  </si>
+  <si>
+    <t>{'label': 'analysis assay', 'prefLabel': 'analysis assay', 'altLabel': 'analysis', 'name': 'AFP_0003491'}</t>
+  </si>
+  <si>
     <t>{'label': 'synthesis', 'prefLabel': 'synthesis', 'altLabel': None, 'name': 'AFP_0001348'}</t>
   </si>
   <si>
@@ -1153,48 +1501,126 @@
     <t>{'label': 'washing', 'prefLabel': 'washing', 'altLabel': None, 'name': 'AFP_0001878'}</t>
   </si>
   <si>
+    <t>{'label': 'aspirating', 'prefLabel': 'aspirating', 'altLabel': 'aspiration', 'name': 'AFP_0001824'}</t>
+  </si>
+  <si>
+    <t>{'label': 'pH (quality)', 'prefLabel': 'pH (quality)', 'altLabel': 'pH', 'name': 'PATO_0001842'}</t>
+  </si>
+  <si>
+    <t>{'label': 'drawing', 'prefLabel': 'drawing', 'altLabel': None, 'name': 'AFP_0003284'}</t>
+  </si>
+  <si>
+    <t>{'label': 'partitioning', 'prefLabel': 'partitioning', 'altLabel': 'distributing', 'name': 'AFP_0003403'}</t>
+  </si>
+  <si>
     <t>{'label': 'maintaining', 'prefLabel': 'maintaining', 'altLabel': 'material maintenance', 'name': 'AFP_0003331'}</t>
   </si>
   <si>
+    <t>{'label': 'in-port role', 'prefLabel': 'in-port role', 'altLabel': 'target', 'name': 'AFRL_0000148'}</t>
+  </si>
+  <si>
+    <t>{'label': 'out-port role', 'prefLabel': 'out-port role', 'altLabel': 'source', 'name': 'AFRL_0000147'}</t>
+  </si>
+  <si>
+    <t>{'label': 'moving', 'prefLabel': 'moving', 'altLabel': 'flowing', 'name': 'AFP_0003464'}</t>
+  </si>
+  <si>
+    <t>{'label': 'stopping', 'prefLabel': 'stopping', 'altLabel': 'deactivating', 'name': 'AFP_0003424'}</t>
+  </si>
+  <si>
+    <t>{'label': 'signal', 'prefLabel': 'signal', 'altLabel': None, 'name': 'AFR_0001004'}</t>
+  </si>
+  <si>
+    <t>{'label': 'totaling', 'prefLabel': 'totaling', 'altLabel': 'adding', 'name': 'AFP_0003572'}</t>
+  </si>
+  <si>
     <t>{'label': 'reflection', 'prefLabel': 'reflection', 'altLabel': 'reflecting', 'name': 'AFP_0003591'}</t>
   </si>
   <si>
+    <t>{'label': 'assigning', 'prefLabel': 'assigning', 'altLabel': None, 'name': 'AFP_0003603'}</t>
+  </si>
+  <si>
+    <t>{'label': 'containing', 'prefLabel': 'containing', 'altLabel': None, 'name': 'AFP_0003623'}</t>
+  </si>
+  <si>
     <t>{'label': 'statistical population', 'prefLabel': 'statistical population', 'altLabel': 'population', 'name': 'AFR_0001209'}</t>
   </si>
   <si>
+    <t>{'label': 'decision', 'prefLabel': 'decision', 'altLabel': None, 'name': 'AFR_0001494'}</t>
+  </si>
+  <si>
+    <t>{'label': 'averaging', 'prefLabel': 'averaging', 'altLabel': None, 'name': 'AFP_0003657'}</t>
+  </si>
+  <si>
+    <t>{'label': 'sequential process', 'prefLabel': 'sequential process', 'altLabel': 'sequence', 'name': 'AFP_0003691'}</t>
+  </si>
+  <si>
+    <t>{'label': 'analyte calibration', 'prefLabel': 'analyte calibration', 'altLabel': 'calibration', 'name': 'AFP_0003706'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reporting', 'prefLabel': 'reporting', 'altLabel': None, 'name': 'AFP_0003729'}</t>
+  </si>
+  <si>
+    <t>{'label': 'adding (material)', 'prefLabel': 'adding (material)', 'altLabel': 'adding', 'name': 'AFP_0003743'}</t>
+  </si>
+  <si>
     <t>{'label': 'polymerase chain reaction', 'prefLabel': 'polymerase chain reaction', 'altLabel': 'PCR', 'name': 'AFP_0003770'}</t>
   </si>
   <si>
+    <t>{'label': 'baseline', 'prefLabel': 'baseline', 'altLabel': 'blank reading', 'name': 'AFR_0001219'}</t>
+  </si>
+  <si>
+    <t>{'label': 'genotyping qPCR experiment', 'prefLabel': 'genotyping qPCR experiment', 'altLabel': 'genotyping', 'name': 'AFP_0003779'}</t>
+  </si>
+  <si>
+    <t>{'label': 'ratio', 'prefLabel': 'ratio', 'altLabel': 'factor', 'name': 'AFQ_0000005'}</t>
+  </si>
+  <si>
     <t>{'label': 'electrical and magnetic quality', 'prefLabel': 'electrical and magnetic quality', 'altLabel': 'electromagnetic radiation quality', 'name': 'AFQ_0000065'}</t>
   </si>
   <si>
     <t>{'label': 'molecular entity quality', 'prefLabel': 'molecular entity quality', 'altLabel': 'molecular quality', 'name': 'AFQ_0000252'}</t>
   </si>
   <si>
+    <t>{'label': 'energy (quality)', 'prefLabel': 'energy (quality)', 'altLabel': 'energy', 'name': 'AFQ_0000253'}</t>
+  </si>
+  <si>
+    <t>{'label': 'action', 'prefLabel': 'action', 'altLabel': 'task', 'name': 'AFRE_0000001'}</t>
+  </si>
+  <si>
+    <t>{'label': 'environmental situation', 'prefLabel': 'environmental situation', 'altLabel': 'environment', 'name': 'AFRE_0000005'}</t>
+  </si>
+  <si>
     <t>{'label': 'prediction', 'prefLabel': 'prediction', 'altLabel': 'forecast', 'name': 'AFR_0000694'}</t>
   </si>
   <si>
-    <t>{'label': 'action specification', 'prefLabel': 'action specification', 'altLabel': 'command', 'name': 'AFR_0000941'}</t>
-  </si>
-  <si>
     <t>{'label': 'plan specification', 'prefLabel': 'plan specification', 'altLabel': 'method', 'name': 'AFR_0001501'}</t>
   </si>
   <si>
+    <t>{'label': 'radix', 'prefLabel': 'radix', 'altLabel': 'base', 'name': 'AFR_0000935'}</t>
+  </si>
+  <si>
+    <t>{'label': 'observation', 'prefLabel': 'observation', 'altLabel': None, 'name': 'AFR_0000955'}</t>
+  </si>
+  <si>
+    <t>{'label': 'scalar datum', 'prefLabel': 'scalar datum', 'altLabel': 'scalar', 'name': 'AFR_0000961'}</t>
+  </si>
+  <si>
     <t>{'label': 'time datum', 'prefLabel': 'time datum', 'altLabel': 'time', 'name': 'AFR_0000966'}</t>
   </si>
   <si>
+    <t>{'label': 'parameter role', 'prefLabel': 'parameter role', 'altLabel': 'parameter', 'name': 'AFRL_0000019'}</t>
+  </si>
+  <si>
     <t>{'label': 'count', 'prefLabel': 'count', 'altLabel': 'count (datum)', 'name': 'AFR_0000984'}</t>
   </si>
   <si>
-    <t>{'label': 'country name', 'prefLabel': 'country name', 'altLabel': None, 'name': 'AFR_0001064'}</t>
-  </si>
-  <si>
-    <t>{'label': 'postal code', 'prefLabel': 'postal code', 'altLabel': None, 'name': 'AFR_0001087'}</t>
-  </si>
-  <si>
     <t>{'label': 'viability (cell counter)', 'prefLabel': 'viability (cell counter)', 'altLabel': 'viability', 'name': 'AFR_0001111'}</t>
   </si>
   <si>
+    <t>{'label': 'pH', 'prefLabel': 'pH', 'altLabel': 'pH (datum)', 'name': 'AFR_0001142'}</t>
+  </si>
+  <si>
     <t>{'label': 'statistical population role', 'prefLabel': 'statistical population role', 'altLabel': 'population', 'name': 'AFRL_0000325'}</t>
   </si>
   <si>
@@ -1204,66 +1630,168 @@
     <t>{'label': 'formulation description', 'prefLabel': 'formulation description', 'altLabel': 'composition', 'name': 'AFR_0001218'}</t>
   </si>
   <si>
+    <t>{'label': 'baseline (chromatography)', 'prefLabel': 'baseline (chromatography)', 'altLabel': 'baseline', 'name': 'AFR_0001220'}</t>
+  </si>
+  <si>
+    <t>{'label': 'standard', 'prefLabel': 'standard', 'altLabel': 'norm', 'name': 'AFR_0001276'}</t>
+  </si>
+  <si>
     <t>{'label': 'value specification', 'prefLabel': 'value specification', 'altLabel': None, 'name': 'AFR_0001532'}</t>
   </si>
   <si>
     <t>{'label': 'osmolality', 'prefLabel': 'osmolality', 'altLabel': 'osmolality (datum)', 'name': 'AFR_0001586'}</t>
   </si>
   <si>
+    <t>{'label': 'data cube', 'prefLabel': 'data cube', 'altLabel': 'DataSet', 'name': 'DataSet'}</t>
+  </si>
+  <si>
     <t>{'label': 'analyte role', 'prefLabel': 'analyte role', 'altLabel': 'analyte', 'name': 'AFRL_0000127'}</t>
   </si>
   <si>
+    <t>{'label': 'mass concentration', 'prefLabel': 'mass concentration', 'altLabel': 'density', 'name': 'AFR_0001661'}</t>
+  </si>
+  <si>
     <t>{'label': 'length', 'prefLabel': 'length', 'altLabel': None, 'name': 'AFR_0001817'}</t>
   </si>
   <si>
     <t>{'label': 'volume', 'prefLabel': 'volume', 'altLabel': 'volume (datum)', 'name': 'AFR_0001843'}</t>
   </si>
   <si>
+    <t>{'label': 'measure', 'prefLabel': 'measure', 'altLabel': 'measured value', 'name': 'AFRL_0000157'}</t>
+  </si>
+  <si>
+    <t>{'label': 'energy (datum)', 'prefLabel': 'energy (datum)', 'altLabel': 'energy', 'name': 'AFR_0001880'}</t>
+  </si>
+  <si>
     <t>{'label': 'flow rate', 'prefLabel': 'flow rate', 'altLabel': 'flow rate (datum)', 'name': 'AFR_0001881'}</t>
   </si>
   <si>
     <t>{'label': 'pressure', 'prefLabel': 'pressure', 'altLabel': 'pressure (datum)', 'name': 'AFR_0001918'}</t>
   </si>
   <si>
+    <t>{'label': 'parameter (math)', 'prefLabel': 'parameter (math)', 'altLabel': 'parameter', 'name': 'AFRL_0000478'}</t>
+  </si>
+  <si>
+    <t>{'label': 'signal (communication)', 'prefLabel': 'signal (communication)', 'altLabel': 'signal', 'name': 'AFR_0001964'}</t>
+  </si>
+  <si>
+    <t>{'label': 'comment', 'prefLabel': 'comment', 'altLabel': 'remark', 'name': 'AFR_0002017'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reference', 'prefLabel': 'reference', 'altLabel': 'reference data', 'name': 'AFR_0002008'}</t>
+  </si>
+  <si>
+    <t>{'label': 'database', 'prefLabel': 'database', 'altLabel': None, 'name': 'AFR_0002040'}</t>
+  </si>
+  <si>
+    <t>{'label': 'sample role (preparation)', 'prefLabel': 'sample role (preparation)', 'altLabel': 'sample', 'name': 'AFRL_0000508'}</t>
+  </si>
+  <si>
     <t>{'label': 'arithmetic mean', 'prefLabel': 'arithmetic mean', 'altLabel': 'mean', 'name': 'AFR_0002208'}</t>
   </si>
   <si>
+    <t>{'label': 'standard material role', 'prefLabel': 'standard material role', 'altLabel': 'standard', 'name': 'AFRL_0000233'}</t>
+  </si>
+  <si>
+    <t>{'label': 'median', 'prefLabel': 'median', 'altLabel': None, 'name': 'AFR_0002209'}</t>
+  </si>
+  <si>
+    <t>{'label': 'median role', 'prefLabel': 'median role', 'altLabel': 'median', 'name': 'AFRL_0000321'}</t>
+  </si>
+  <si>
+    <t>{'label': 'variance', 'prefLabel': 'variance', 'altLabel': None, 'name': 'AFR_0002210'}</t>
+  </si>
+  <si>
+    <t>{'label': 'variance role', 'prefLabel': 'variance role', 'altLabel': 'variance', 'name': 'AFRL_0000323'}</t>
+  </si>
+  <si>
+    <t>{'label': 'skewness', 'prefLabel': 'skewness', 'altLabel': None, 'name': 'AFR_0002211'}</t>
+  </si>
+  <si>
+    <t>{'label': 'skewness role', 'prefLabel': 'skewness role', 'altLabel': 'skewness', 'name': 'AFRL_0000322'}</t>
+  </si>
+  <si>
+    <t>{'label': 'standard sample role', 'prefLabel': 'standard sample role', 'altLabel': 'standard', 'name': 'AFRL_0000255'}</t>
+  </si>
+  <si>
+    <t>{'label': 'fluorescence', 'prefLabel': 'fluorescence', 'altLabel': 'fluorescence (datum)', 'name': 'AFR_0002480'}</t>
+  </si>
+  <si>
     <t>{'label': 'system setting', 'prefLabel': 'system setting', 'altLabel': 'device setting', 'name': 'AFR_0002744'}</t>
   </si>
   <si>
+    <t>{'label': 'error', 'prefLabel': 'error', 'altLabel': None, 'name': 'AFR_0002804'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reference role', 'prefLabel': 'reference role', 'altLabel': 'reference', 'name': 'AFRL_0000022'}</t>
+  </si>
+  <si>
     <t>{'label': 'measurand role', 'prefLabel': 'measurand role', 'altLabel': 'measurand', 'name': 'AFRL_0000213'}</t>
   </si>
   <si>
     <t>{'label': 'eluate', 'prefLabel': 'eluate', 'altLabel': None, 'name': 'AFRL_0000219'}</t>
   </si>
   <si>
+    <t>{'label': 'control sample role', 'prefLabel': 'control sample role', 'altLabel': 'control', 'name': 'AFRL_0000253'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reference sample role', 'prefLabel': 'reference sample role', 'altLabel': 'reference', 'name': 'AFRL_0000258'}</t>
+  </si>
+  <si>
     <t>{'label': 'solute role', 'prefLabel': 'solute role', 'altLabel': 'dissolved compound', 'name': 'AFRL_0000270'}</t>
   </si>
   <si>
+    <t>{'label': 'detector role', 'prefLabel': 'detector role', 'altLabel': 'detector', 'name': 'AFRL_0000340'}</t>
+  </si>
+  <si>
     <t>{'label': 'specimen role', 'prefLabel': 'specimen role', 'altLabel': 'specimen', 'name': 'AFRL_0000352'}</t>
   </si>
   <si>
     <t>{'label': 'population role', 'prefLabel': 'population role', 'altLabel': 'population', 'name': 'AFRL_0000370'}</t>
   </si>
   <si>
+    <t>{'label': 'sequential', 'prefLabel': 'sequential', 'altLabel': 'sequential role', 'name': 'AFRL_0000475'}</t>
+  </si>
+  <si>
     <t>{'label': 'site (organization)', 'prefLabel': 'site (organization)', 'altLabel': 'site', 'name': 'AFSP_0000001'}</t>
   </si>
   <si>
+    <t>{'label': 'solid dosage form', 'prefLabel': 'solid dosage form', 'altLabel': 'solid', 'name': 'NCIT_C45235'}</t>
+  </si>
+  <si>
+    <t>{'label': 'mass density (quality)', 'prefLabel': 'mass density (quality)', 'altLabel': 'density', 'name': 'PATO_0001019'}</t>
+  </si>
+  <si>
     <t>{'label': 'dimension', 'prefLabel': 'dimension', 'altLabel': None, 'name': 'Dimension'}</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000165</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002076</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000456</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200141</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000967</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/IAO_0000033</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0001892</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/IAO_0020000</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000391</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000113</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000361</t>
   </si>
   <si>
@@ -1291,7 +1819,7 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000536</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0400043</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0000091</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000940</t>
@@ -1336,6 +1864,9 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000049</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000014</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000509</t>
   </si>
   <si>
@@ -1351,6 +1882,12 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000400</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0003547</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200110</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0400107</t>
   </si>
   <si>
@@ -1369,12 +1906,18 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000547</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000129</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600005</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0300311</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000426</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000372</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000339</t>
   </si>
   <si>
@@ -1384,15 +1927,48 @@
     <t>http://purl.obolibrary.org/obo/OBI_0001041</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001508</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000064</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000214</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000250</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000380</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CLO_0000031</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/UBERON_0000465</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000399</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000381</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0400081</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_24636</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_33250</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000367</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302900</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000245</t>
   </si>
   <si>
@@ -1402,18 +1978,30 @@
     <t>http://purl.obolibrary.org/obo/OBI_0302732</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0400044</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000185</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0600053</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0200000</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0001913</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000385</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000070</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001902</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_8000008</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0600040</t>
   </si>
   <si>
@@ -1432,75 +2020,195 @@
     <t>http://purl.obolibrary.org/obo/OBI_0302888</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000838</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0002785</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000110</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000338</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200171</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600024</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000444</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000096</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200056</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0500022</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000393</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000274</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0400089</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000574</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002087</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000181</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000415</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0000707</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000425</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000068</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000406</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000143</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000435</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000054</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/PATO_0002182</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000007</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000401</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0302910</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/IAO_0000007</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000104</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_8000001</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000032</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000172</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/APOLLO_SV_00000032</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001627</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/IAO_0000646</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0000235</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0001933</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/APOLLO_SV_00000796</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000275</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000079</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000453</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001898</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000025</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000650</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000679</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200119</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200022</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200123</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000213</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000654</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000662</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0002444</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000318</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002493</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0302733</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000112</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0003592</t>
+  </si>
+  <si>
     <t>{'label': 'time'}</t>
   </si>
   <si>
+    <t>{'label': 'collection'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material'}</t>
+  </si>
+  <si>
+    <t>{'label': 'log'}</t>
+  </si>
+  <si>
     <t>{'label': 'container'}</t>
   </si>
   <si>
-    <t>{'label': 'directive information entity'}</t>
+    <t>{'label': 'specification'}</t>
   </si>
   <si>
     <t>{'label': 'identifier'}</t>
   </si>
   <si>
+    <t>{'label': 'energy'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Collection'}</t>
+  </si>
+  <si>
+    <t>{'label': 'sequence'}</t>
+  </si>
+  <si>
     <t>{'label': 'ion source'}</t>
   </si>
   <si>
@@ -1528,7 +2236,7 @@
     <t>{'label': 'fraction collector'}</t>
   </si>
   <si>
-    <t>{'label': 'flow cell'}</t>
+    <t>{'label': 'detector'}</t>
   </si>
   <si>
     <t>{'label': 'optical microscope'}</t>
@@ -1579,6 +2287,9 @@
     <t>{'label': 'mass spectrometer'}</t>
   </si>
   <si>
+    <t>{'label': 'regulator'}</t>
+  </si>
+  <si>
     <t>{'label': 'electron capture detector'}</t>
   </si>
   <si>
@@ -1591,7 +2302,13 @@
     <t>{'label': 'syringe'}</t>
   </si>
   <si>
-    <t>{'label': 'display function'}</t>
+    <t>{'label': 'display'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid chromatography'}</t>
+  </si>
+  <si>
+    <t>{'label': 'S'}</t>
   </si>
   <si>
     <t>{'label': 'computer'}</t>
@@ -1615,12 +2332,18 @@
     <t>{'label': 'evaporative light scattering detector'}</t>
   </si>
   <si>
+    <t>{'label': 'calibration'}</t>
+  </si>
+  <si>
+    <t>{'label': 'collecting'}</t>
+  </si>
+  <si>
+    <t>{'label': 'observation'}</t>
+  </si>
+  <si>
     <t>{'label': 'injection'}</t>
   </si>
   <si>
-    <t>{'label': 'material separation function'}</t>
-  </si>
-  <si>
     <t>{'label': 'planning'}</t>
   </si>
   <si>
@@ -1630,18 +2353,51 @@
     <t>{'label': 'stabilization function'}</t>
   </si>
   <si>
+    <t>{'label': 'sampling'}</t>
+  </si>
+  <si>
+    <t>{'label': 'positive'}</t>
+  </si>
+  <si>
+    <t>{'label': 'negative'}</t>
+  </si>
+  <si>
+    <t>{'label': 'dye'}</t>
+  </si>
+  <si>
     <t>{'altLabel': 'water'}</t>
   </si>
   <si>
+    <t>{'label': 'gas'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell'}</t>
+  </si>
+  <si>
     <t>{'label': 'material anatomical entity'}</t>
   </si>
   <si>
+    <t>{'label': 'solid'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid'}</t>
+  </si>
+  <si>
+    <t>{'label': 'particle'}</t>
+  </si>
+  <si>
     <t>{'label': 'proton'}</t>
   </si>
   <si>
     <t>{'label': 'atom'}</t>
   </si>
   <si>
+    <t>{'label': 'light'}</t>
+  </si>
+  <si>
+    <t>{'label': 'group'}</t>
+  </si>
+  <si>
     <t>{'label': 'organization'}</t>
   </si>
   <si>
@@ -1651,7 +2407,10 @@
     <t>{'label': 'purification'}</t>
   </si>
   <si>
-    <t>{'label': 'solvent role'}</t>
+    <t>{'label': 'solvent'}</t>
+  </si>
+  <si>
+    <t>{'label': 'flow'}</t>
   </si>
   <si>
     <t>{'label': 'imaging assay'}</t>
@@ -1660,12 +2419,21 @@
     <t>{'label': 'electrophoresis'}</t>
   </si>
   <si>
-    <t>{'label': 'data transformation'}</t>
+    <t>{'label': 'computation'}</t>
+  </si>
+  <si>
+    <t>{'label': 'ionization'}</t>
   </si>
   <si>
     <t>{'label': 'assay'}</t>
   </si>
   <si>
+    <t>{'label': 'sample'}</t>
+  </si>
+  <si>
+    <t>{'label': 'analysis'}</t>
+  </si>
+  <si>
     <t>{'label': 'synthesis'}</t>
   </si>
   <si>
@@ -1684,16 +2452,70 @@
     <t>{'label': 'washing'}</t>
   </si>
   <si>
-    <t>{'label': 'material maintenance'}</t>
+    <t>{'label': 'aspiration'}</t>
+  </si>
+  <si>
+    <t>{'label': 'pH'}</t>
+  </si>
+  <si>
+    <t>{'label': 'drawing'}</t>
+  </si>
+  <si>
+    <t>{'label': 'partitioning'}</t>
+  </si>
+  <si>
+    <t>{'label': 'maintaining'}</t>
+  </si>
+  <si>
+    <t>{'label': 'target'}</t>
+  </si>
+  <si>
+    <t>{'label': 'source'}</t>
+  </si>
+  <si>
+    <t>{'label': 'moving'}</t>
+  </si>
+  <si>
+    <t>{'label': 'stopping'}</t>
+  </si>
+  <si>
+    <t>{'label': 'signal'}</t>
+  </si>
+  <si>
+    <t>{'label': 'adding'}</t>
   </si>
   <si>
     <t>{'label': 'reflection'}</t>
   </si>
   <si>
+    <t>{'label': 'assigning'}</t>
+  </si>
+  <si>
+    <t>{'label': 'containing'}</t>
+  </si>
+  <si>
     <t>{'label': 'population'}</t>
   </si>
   <si>
-    <t>{'label': 'polymerase chain reaction'}</t>
+    <t>{'label': 'decision'}</t>
+  </si>
+  <si>
+    <t>{'label': 'averaging'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reporting'}</t>
+  </si>
+  <si>
+    <t>{'label': 'PCR'}</t>
+  </si>
+  <si>
+    <t>{'label': 'baseline'}</t>
+  </si>
+  <si>
+    <t>{'label': 'genotyping'}</t>
+  </si>
+  <si>
+    <t>{'label': 'ratio'}</t>
   </si>
   <si>
     <t>{'label': 'electromagnetic radiation quality', 'prefLabel': 'electromagnetic radiation quality'}</t>
@@ -1702,24 +2524,30 @@
     <t>{'label': 'molecular quality'}</t>
   </si>
   <si>
+    <t>{'label': 'action'}</t>
+  </si>
+  <si>
+    <t>{'label': 'environment'}</t>
+  </si>
+  <si>
     <t>{'label': 'prediction'}</t>
   </si>
   <si>
-    <t>{'label': 'action specification'}</t>
-  </si>
-  <si>
     <t>{'label': 'plan specification'}</t>
   </si>
   <si>
+    <t>{'label': 'base'}</t>
+  </si>
+  <si>
+    <t>{'label': 'scalar'}</t>
+  </si>
+  <si>
+    <t>{'label': 'parameter'}</t>
+  </si>
+  <si>
     <t>{'label': 'count'}</t>
   </si>
   <si>
-    <t>{'label': 'country name'}</t>
-  </si>
-  <si>
-    <t>{'label': 'postal code'}</t>
-  </si>
-  <si>
     <t>{'altLabel': 'viability'}</t>
   </si>
   <si>
@@ -1729,13 +2557,22 @@
     <t>{'label': 'composition', 'prefLabel': 'composition'}</t>
   </si>
   <si>
+    <t>{'label': 'standard'}</t>
+  </si>
+  <si>
     <t>{'label': 'value specification'}</t>
   </si>
   <si>
     <t>{'altLabel': 'osmolality'}</t>
   </si>
   <si>
-    <t>{'label': 'analyte role'}</t>
+    <t>{'label': 'DataSet'}</t>
+  </si>
+  <si>
+    <t>{'label': 'analyte'}</t>
+  </si>
+  <si>
+    <t>{'label': 'density'}</t>
   </si>
   <si>
     <t>{'altLabel': 'length'}</t>
@@ -1744,34 +2581,379 @@
     <t>{'altLabel': 'volume'}</t>
   </si>
   <si>
+    <t>{'label': 'measure'}</t>
+  </si>
+  <si>
     <t>{'altLabel': 'flow rate'}</t>
   </si>
   <si>
     <t>{'altLabel': 'pressure'}</t>
   </si>
   <si>
+    <t>{'label': 'comment'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reference'}</t>
+  </si>
+  <si>
+    <t>{'label': 'database'}</t>
+  </si>
+  <si>
     <t>{'label': 'mean'}</t>
   </si>
   <si>
+    <t>{'label': 'median'}</t>
+  </si>
+  <si>
+    <t>{'label': 'variance'}</t>
+  </si>
+  <si>
+    <t>{'label': 'skewness'}</t>
+  </si>
+  <si>
+    <t>{'label': 'fluorescence'}</t>
+  </si>
+  <si>
     <t>{'label': 'device setting'}</t>
   </si>
   <si>
-    <t>{'label': 'measurand role'}</t>
+    <t>{'label': 'error'}</t>
+  </si>
+  <si>
+    <t>{'label': 'measurand'}</t>
   </si>
   <si>
     <t>{'label': 'eluate'}</t>
   </si>
   <si>
+    <t>{'label': 'control'}</t>
+  </si>
+  <si>
     <t>{'label': 'solute role'}</t>
   </si>
   <si>
-    <t>{'label': 'specimen role'}</t>
+    <t>{'label': 'specimen'}</t>
+  </si>
+  <si>
+    <t>{'label': 'sequential'}</t>
   </si>
   <si>
     <t>{'label': 'site', 'prefLabel': 'site'}</t>
   </si>
   <si>
     <t>{'altLabel': 'dimension'}</t>
+  </si>
+  <si>
+    <t>['A generically dependent continuant that is about some thing. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A material entity is an independent continuant that has some portion of matter as proper or improper continuant part. [BFO]']</t>
+  </si>
+  <si>
+    <t>['p is a process if p is an occurrent that has temporal proper parts and for some time t, p specifically depends on some material entity at t. [BFO]', locstr("Process, i.e., a physical entity with a temporal evolution that 'has a meaning for the ontologist'", 'en')]</t>
+  </si>
+  <si>
+    <t>['p is a process boundary if p is a temporal part of a process and p has no proper temporal parts. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A function is a disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a process profile if there is some process c such that b is process profile of c. B is process profile of c holds when b is a proper occurrent part of c and there is some proper occurrent part d of c which has no parts in common with b and is mutually dependent on b and is such that b, c and d occupy the same temporal region. [BFO]']</t>
+  </si>
+  <si>
+    <t>['An occurrent is an entity that unfolds itself in time or it is the instantaneous boundary of such an entity (for example a beginning or an ending) or it is a temporal or spatiotemporal region which such an entity occupies a temporal region or occupies a spatiotemporal region. [BFO]']</t>
+  </si>
+  <si>
+    <t>['To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type.´[BFO]', 'To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type. (axiom label in BFO2 Reference: [058-002])']</t>
+  </si>
+  <si>
+    <t>['A continuant is an entity that persists, endures, or continues to exist through time while maintaining its identity. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is an independent continuant if b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A spatial region is a continuant entity that is a continuant part of space R as defined relative to some frame R. [BFO]']</t>
+  </si>
+  <si>
+    <t>['An entity is anything that exists or has existed or will exist. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A temporal region is an occurrent entity that is part of time as defined relative to some reference frame. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A spatiotemporal region is an occurrent entity that is part of spacetime. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is a specifically dependent continuant if b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b specifically depends on c at every time t during the course of b’s existence. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is a generically dependent continuant if b is a continuant that generically depends on one or more other entities. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be and b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up. [BFO]']</t>
+  </si>
+  <si>
+    <t>['An information content entity that is a mark(s) or character(s) used as a conventional representation of another entity. [IAO]']</t>
+  </si>
+  <si>
+    <t>['B is a fiat object part if b is a material entity which is such that for all times t, if b exists at t then there is some object c such that b is a proper continuant part of c at t and c is demarcated from the remainder of c by a two-dimensional continuant fiat boundary. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a site means: b is a three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof. [BFO]']</t>
+  </si>
+  <si>
+    <t>['Any constitutionally or isotopically distinct atom, molecule, ion, ion pair, radical, radical ion, complex, conformer etc., identifiable as a separately distinguishable entity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['An oxygen hydride consisting of an oxygen atom that is covalently bonded to two hydrogen atoms. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>["A physical quality that inheres in a bearer by virtue of the proportion of the bearer's amount of matter. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['B is an object means: b is a material entity which manifests causal unity of one or other of the types causal unities and is of a type (a material universal) instances of which are maximal relative to this criterion of causal unity.\n\nTo say that b is causally unified means: b is a material entity which is such that its material parts are tied together in such a way that, in environments typical for entities of the type in question,if c, a continuant part of b that is in the interior of b at t, is larger than a certain threshold size (which will be determined differently from case to case, depending on factors such as porosity of external cover) and is moved in space to be at t at a location on the exterior of the spatial region that had been occupied by b at t, then either b’s other parts will be moved in coordinated fashion or b will be damaged (be affected, for example, by breakage or tearing) in the interval between t and t. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A member of the the species Homo sapiens. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['B is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member parts at all times at which b exists. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A one-carbon compound with formula CO2 in which the carbon is attached to each oxygen atom by a double bond. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['An azane that consists of a single nitrogen atom covelently bonded to three hydrogen atoms. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>["A 3-D extent quality inhering in a bearer by virtue of the bearer's amount of 3-dimensional space it occupies."]</t>
+  </si>
+  <si>
+    <t>['A processual entity that realizes a plan which is the concretization of a plan specification. [IAO]']</t>
+  </si>
+  <si>
+    <t>["A physical quality that inheres in a bearer by virtue of the bearer's amount of force per unit area it exerts."]</t>
+  </si>
+  <si>
+    <t>["Concentration is a molecular quality inhering in a substance by virtue of the amount of the bearer's there is mixed with another substance. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A physical quality of the thermal energy of a system. [PATO]']</t>
+  </si>
+  <si>
+    <t>['A report is a document assembled by an author for the purpose of providing information for the audience. A report is the output of a documenting process and has the objective to be consumed by a specific audience. Topic of the report is on something that has completed. A report is not a single figure. [IAO]']</t>
+  </si>
+  <si>
+    <t>['An image is an affine projection to a two dimensional surface, of measurements of some quality of an entity or entities repeated at regular intervals across a spatial range, where the measurements are represented as color and luminosity on the projected on surface. [IAO]']</t>
+  </si>
+  <si>
+    <t>['B is a relational quality if for some independent continuants c, d and for some time t: b is quality of c at t and b is quality of d at t. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the distance between two points. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's physical magnitude. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['An EM radiation quality in which the EM radiation is within the fiat range of the spectrum visible deemed to be light. [PATO]']</t>
+  </si>
+  <si>
+    <t>['A physical quality that inheres in an bearer by virtue of how that bearer interacts with electromagnetic radiation. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A quality of a single physical entity inhering in the bearer by virtue of the bearer's size or shape or structure. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A physical quality inhering in a bearer by virtue of the bearer's participation in movement. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A single physical entity inhering in an bearer by virtue of the bearer's quantities or relative ratios of subparts. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A physical quality inhering in a bearer by virtue of the bearer's motion through a surface per time. [Allotrope]"]</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's relative position, shape, arrangements and connectivity of an material entity's various parts; the pattern underlying its form. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["Position is a  spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A plan is a realizable entity that is the inheres in a bearer who is committed to realizing it as a planned process. [OBI]']</t>
+  </si>
+  <si>
+    <t>['A history is a process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A plan specification which describes the inputs and output of mathematical functions as well as workflow of execution for achieving an predefined objective. Algorithms are realized usually by means of implementation as computer programs for execution by automata. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A zero-dimensional temporal region is a temporal region that is without extent. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A one-dimensional temporal region is a temporal region that is extended. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A textual entity that denotes a particular in reality. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A diagram that presents one or more tuples of information by mapping those tuples in to a two dimensional space in a non arbitrary way. [IAO]']</t>
+  </si>
+  <si>
+    <t>["An organismal quality inhering in a bearer or a population by virtue of the bearer's disposition to survive and develop normally or the number of surviving individuals in a given population. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A serial number is an information content entity which is a unique sequence of characters borne by part of manufactured product or its packaging that is assigned to each individual in some class of products, and so can serve as a way to identify an individual product within the class. Serial numbers can be encoded in a variety of other information objects, such as bar codes, numerals, or patterns of dots. [IAO]']</t>
+  </si>
+  <si>
+    <t>['Manufacturer role is a role which inheres in a person or organization and which is realized by a manufacturing process. [OBI]']</t>
+  </si>
+  <si>
+    <t>['A version number is an information content entity which is a sequence of characters borne by part of each of a class of manufactured products or its packaging and indicates its order within a set of other products having the same name. [IAO]']</t>
+  </si>
+  <si>
+    <t>['Software is a plan specification composed of a series of instructions that can be interpreted by or directly executed by a processing unit. [IAO]']</t>
+  </si>
+  <si>
+    <t>["A concentration quality inhering in a bearer by virtue of the bearer's amount of osmoles of solute per kilogram of solvent. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A model number is an information content entity specifically borne by catalogs, design specifications, advertising materials, inventory systems and similar that is about manufactured objects of the same class. The model number is an alternative term for the class. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A collection of information content entities intended to be understood together as a whole [IAO]']</t>
+  </si>
+  <si>
+    <t>['A data format specification is the information content borne by the document published defining the specification. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A label is a symbol that is part of some other datum and is used to either partially define  the denotation of that datum or to provide a means for identifying the datum as a member of the set of data with the same label [IAO]']</t>
+  </si>
+  <si>
+    <t>['A role inhering in a biological or chemical entity that is intended to be applied in a scientific technique to participate (or have molecular components that participate) in a chemical reaction that facilitates the generation of data about some entity distinct from the bearer, or the generation of some specified material output distinct from the bearer. [OBI]']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['B is a continuant fiat boundary if b is an immaterial entity that is of zero, one or two dimensions and does not include a spatial region as part. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A two-dimensional spatial region is a spatial region that is of two dimensions. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A three-dimensional spatial region is a spatial region that is of three dimensions. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A zero-dimensional spatial region is a point in space. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A one-dimensional spatial region is a line or aggregate of lines stretching from one point in space to another. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A one-dimensional continuant fiat boundary is a continuous fiat line whose location is defined in relation to some material entity.  [BFO]']</t>
+  </si>
+  <si>
+    <t>['A two-dimensional continuant fiat boundary (surface) is a self-connected fiat surface whose location is defined in relation to some material entity. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A zero-dimensional continuant fiat boundary is a fiat point whose location is defined in relation to some material entity. [BFO]']</t>
+  </si>
+  <si>
+    <t>['An environmental material is a fiat object which forms the medium or part of the medium of an environmental system. [ENVO]']</t>
+  </si>
+  <si>
+    <t>['A directive information entity that describes an intended process endpoint. When part of a plan specification the concretization is realized in a planned process in which the bearer tries to effect the world so that the process endpoint is achieved. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A dot plot is a report graph which is a graphical representation of data where each data point is represented by a single dot placed on coordinates corresponding to data point values in particular dimensions. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A figure that expresses one or more propositions. [IAO]']</t>
+  </si>
+  <si>
+    <t>['An information content entity consisting of a two dimensional arrangement of information content entities such that the arrangement itself is about something. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A lot number is an information content entity which is an identical sequence of character borne by part of manufactured product or its packaging for each instances of a product class in a discrete batch of an item. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A material entity in which a concretization of an information content entity inheres. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A textual entity is a part of a manifestation (FRBR sense), a generically dependent continuant whose concretizations are patterns of glyphs intended to be interpreted as words, formulas, etc.']</t>
+  </si>
+  <si>
+    <t>['A textual entity that describes a figure [IAO]']</t>
+  </si>
+  <si>
+    <t>['A textual entity that contains a two-dimensional arrangement of texts repeated at regular intervals across a spatial range, such that the spatial relationships among the constituent texts expresses propositions [IAO]']</t>
+  </si>
+  <si>
+    <t>['A textual entity that is used as directive to deliver something to a person, or organization. [IAO]']</t>
+  </si>
+  <si>
+    <t>['An email address identifies an email box to which email messages are delivered. [Wikipedia]']</t>
+  </si>
+  <si>
+    <t>['A line graph is a type of graph created by connecting a series of data points together with a line. [IAO]']</t>
+  </si>
+  <si>
+    <t>["A symbol that is part of a CRID and that is sufficient to look up a record from the CRID's registry. [IAO]"]</t>
+  </si>
+  <si>
+    <t>['An information content entity that consists of a CRID symbol and additional information about the CRID registry to which it belongs. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A CRID registry is a dataset of CRID records, each consisting of a CRID symbol and additional information which was recorded in the dataset through a assigning a centrally registered identifier process. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A material entity that is an individual living system, such as animal, plant, bacteria or virus, that is capable of replicating or reproducing, growth and maintenance in the right environment. An organism may be unicellular or made up, like humans, of many billions of cells divided into specialized tissues and organs. [OBI]']</t>
+  </si>
+  <si>
+    <t>['Is a material entity that is created or changed during material processing. [OBI]']</t>
+  </si>
+  <si>
+    <t>['Material processing is a planned material process which results in physical changes in a specified input material. [OBI]']</t>
+  </si>
+  <si>
+    <t>['Manufacturing is a producing with the intent to produce a processed material which will have a function for future use. [OBI]']</t>
+  </si>
+  <si>
+    <t>['A manufacturer is an organizational entity that has a manufacturer role. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['Curve fitting is a data transformation that is the process of constructing a curve, or mathematical function, that has the best fit to a series of data points, possibly subject to constraints. [Wikipedia]']</t>
+  </si>
+  <si>
+    <t>['Fluorescence is a luminescence which occurs essentially only during the irradiation of a substance by electromagnetic radiation. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['A quality that inheres in an entire organism or part of an organism. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A size quality inhering in an bearer by virtue of the bearer's extension in three dimensions. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A concentration which is relatively low. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A viability quality inhering in a bearer by virtue of the bearer's condition before death. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A viability quality inhering in a bearer by virtue of the cessation of the bearer's life. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A physical quality inhering in a fluid (liquid or gas) by virtue of the amount of fluid which passes through a given surface per unit time. [PATO]']</t>
   </si>
 </sst>
 </file>
@@ -2142,13 +3324,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,3473 +3343,5788 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>294</v>
+      </c>
+      <c r="F2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>295</v>
+      </c>
+      <c r="F3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>296</v>
+      </c>
+      <c r="F4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>297</v>
+      </c>
+      <c r="F5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>298</v>
+      </c>
+      <c r="F6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>301</v>
+      </c>
+      <c r="F9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>302</v>
+      </c>
+      <c r="F10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>303</v>
+      </c>
+      <c r="F11" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>304</v>
+      </c>
+      <c r="F12" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>305</v>
+      </c>
+      <c r="F13" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>306</v>
+      </c>
+      <c r="F14" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>307</v>
+      </c>
+      <c r="F15" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>308</v>
+      </c>
+      <c r="F16" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>309</v>
+      </c>
+      <c r="F17" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>310</v>
+      </c>
+      <c r="F18" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>311</v>
+      </c>
+      <c r="F19" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>312</v>
+      </c>
+      <c r="F20" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>313</v>
+      </c>
+      <c r="F21" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>314</v>
+      </c>
+      <c r="F22" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>315</v>
+      </c>
+      <c r="F23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>316</v>
+      </c>
+      <c r="F24" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>317</v>
+      </c>
+      <c r="F25" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>318</v>
+      </c>
+      <c r="F26" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="F27" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>320</v>
+      </c>
+      <c r="F28" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>321</v>
+      </c>
+      <c r="F29" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>322</v>
+      </c>
+      <c r="F30" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>323</v>
+      </c>
+      <c r="F31" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>324</v>
+      </c>
+      <c r="F32" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>325</v>
+      </c>
+      <c r="F33" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>326</v>
+      </c>
+      <c r="F34" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>327</v>
+      </c>
+      <c r="F35" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>328</v>
+      </c>
+      <c r="F36" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>329</v>
+      </c>
+      <c r="F37" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>330</v>
+      </c>
+      <c r="F38" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>331</v>
+      </c>
+      <c r="F39" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>332</v>
+      </c>
+      <c r="F40" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>333</v>
+      </c>
+      <c r="F41" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>334</v>
+      </c>
+      <c r="F42" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="F43" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>336</v>
+      </c>
+      <c r="F44" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>337</v>
+      </c>
+      <c r="F45" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>338</v>
+      </c>
+      <c r="F46" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>339</v>
+      </c>
+      <c r="F47" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>340</v>
+      </c>
+      <c r="F48" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>341</v>
+      </c>
+      <c r="F49" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>342</v>
+      </c>
+      <c r="F50" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>343</v>
+      </c>
+      <c r="F51" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>344</v>
+      </c>
+      <c r="F52" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>345</v>
+      </c>
+      <c r="F53" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>346</v>
+      </c>
+      <c r="F54" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>347</v>
+      </c>
+      <c r="F55" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>348</v>
+      </c>
+      <c r="F56" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>349</v>
+      </c>
+      <c r="F57" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>350</v>
+      </c>
+      <c r="F58" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>351</v>
+      </c>
+      <c r="F59" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>352</v>
+      </c>
+      <c r="F60" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>353</v>
+      </c>
+      <c r="F61" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>354</v>
+      </c>
+      <c r="F62" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>355</v>
+      </c>
+      <c r="F63" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>356</v>
+      </c>
+      <c r="F64" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>357</v>
+      </c>
+      <c r="F65" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>358</v>
+      </c>
+      <c r="F66" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>359</v>
+      </c>
+      <c r="F67" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>360</v>
+      </c>
+      <c r="F68" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>361</v>
+      </c>
+      <c r="F69" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>362</v>
+      </c>
+      <c r="F70" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>363</v>
+      </c>
+      <c r="F71" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>364</v>
+      </c>
+      <c r="F72" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>365</v>
+      </c>
+      <c r="F73" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>366</v>
+      </c>
+      <c r="F74" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>367</v>
+      </c>
+      <c r="F75" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>368</v>
+      </c>
+      <c r="F76" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>369</v>
+      </c>
+      <c r="F77" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>370</v>
+      </c>
+      <c r="F78" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>371</v>
+      </c>
+      <c r="F79" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>372</v>
+      </c>
+      <c r="F80" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>373</v>
+      </c>
+      <c r="F81" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>374</v>
+      </c>
+      <c r="F82" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>375</v>
+      </c>
+      <c r="F83" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>376</v>
+      </c>
+      <c r="F84" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>377</v>
+      </c>
+      <c r="F85" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>378</v>
+      </c>
+      <c r="F86" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>379</v>
+      </c>
+      <c r="F87" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>380</v>
+      </c>
+      <c r="F88" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>381</v>
+      </c>
+      <c r="F89" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>382</v>
+      </c>
+      <c r="F90" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>383</v>
+      </c>
+      <c r="F91" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>384</v>
+      </c>
+      <c r="F92" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>385</v>
+      </c>
+      <c r="F93" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>386</v>
+      </c>
+      <c r="F94" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>387</v>
+      </c>
+      <c r="F95" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>388</v>
+      </c>
+      <c r="F96" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>389</v>
+      </c>
+      <c r="F97" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>390</v>
+      </c>
+      <c r="F98" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>391</v>
+      </c>
+      <c r="F99" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>392</v>
+      </c>
+      <c r="F100" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>393</v>
+      </c>
+      <c r="F101" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>394</v>
+      </c>
+      <c r="F102" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>395</v>
+      </c>
+      <c r="F103" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>396</v>
+      </c>
+      <c r="F104" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>397</v>
+      </c>
+      <c r="F105" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>412</v>
+        <v>583</v>
       </c>
       <c r="E106" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>721</v>
+      </c>
+      <c r="F106" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>413</v>
+        <v>584</v>
       </c>
       <c r="E107" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>722</v>
+      </c>
+      <c r="F107" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>414</v>
+        <v>585</v>
       </c>
       <c r="E108" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>723</v>
+      </c>
+      <c r="F108" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>415</v>
+        <v>586</v>
       </c>
       <c r="E109" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>724</v>
+      </c>
+      <c r="F109" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>416</v>
+        <v>587</v>
       </c>
       <c r="E110" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>725</v>
+      </c>
+      <c r="F110" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>417</v>
+        <v>588</v>
       </c>
       <c r="E111" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>726</v>
+      </c>
+      <c r="F111" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>418</v>
+        <v>589</v>
       </c>
       <c r="E112" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>727</v>
+      </c>
+      <c r="F112" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>419</v>
+        <v>590</v>
       </c>
       <c r="E113" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>728</v>
+      </c>
+      <c r="F113" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>420</v>
+        <v>584</v>
       </c>
       <c r="E114" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>729</v>
+      </c>
+      <c r="F114" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>421</v>
+        <v>591</v>
       </c>
       <c r="E115" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>730</v>
+      </c>
+      <c r="F115" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>422</v>
+        <v>592</v>
       </c>
       <c r="E116" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>731</v>
+      </c>
+      <c r="F116" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>423</v>
+        <v>593</v>
       </c>
       <c r="E117" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>732</v>
+      </c>
+      <c r="F117" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>424</v>
+        <v>594</v>
       </c>
       <c r="E118" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>733</v>
+      </c>
+      <c r="F118" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>425</v>
+        <v>595</v>
       </c>
       <c r="E119" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>734</v>
+      </c>
+      <c r="F119" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>426</v>
+        <v>596</v>
       </c>
       <c r="E120" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>735</v>
+      </c>
+      <c r="F120" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>427</v>
+        <v>597</v>
       </c>
       <c r="E121" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>736</v>
+      </c>
+      <c r="F121" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>428</v>
+        <v>598</v>
       </c>
       <c r="E122" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>737</v>
+      </c>
+      <c r="F122" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>429</v>
+        <v>599</v>
       </c>
       <c r="E123" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>738</v>
+      </c>
+      <c r="F123" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="E124" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>739</v>
+      </c>
+      <c r="F124" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>431</v>
+        <v>601</v>
       </c>
       <c r="E125" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>740</v>
+      </c>
+      <c r="F125" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>432</v>
+        <v>602</v>
       </c>
       <c r="E126" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>741</v>
+      </c>
+      <c r="F126" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>433</v>
+        <v>603</v>
       </c>
       <c r="E127" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>742</v>
+      </c>
+      <c r="F127" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>334</v>
+        <v>420</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>434</v>
+        <v>604</v>
       </c>
       <c r="E128" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>743</v>
+      </c>
+      <c r="F128" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>28</v>
+        <v>605</v>
       </c>
       <c r="E129" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>744</v>
+      </c>
+      <c r="F129" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>435</v>
+        <v>606</v>
       </c>
       <c r="E130" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>745</v>
+      </c>
+      <c r="F130" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>436</v>
+        <v>607</v>
       </c>
       <c r="E131" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>746</v>
+      </c>
+      <c r="F131" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>437</v>
+        <v>608</v>
       </c>
       <c r="E132" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>747</v>
+      </c>
+      <c r="F132" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>38</v>
+        <v>609</v>
       </c>
       <c r="E133" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>748</v>
+      </c>
+      <c r="F133" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>438</v>
+        <v>610</v>
       </c>
       <c r="E134" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>749</v>
+      </c>
+      <c r="F134" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>439</v>
+        <v>29</v>
       </c>
       <c r="E135" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>750</v>
+      </c>
+      <c r="F135" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>440</v>
+        <v>611</v>
       </c>
       <c r="E136" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>751</v>
+      </c>
+      <c r="F136" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>441</v>
+        <v>612</v>
       </c>
       <c r="E137" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>752</v>
+      </c>
+      <c r="F137" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>442</v>
+        <v>613</v>
       </c>
       <c r="E138" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>753</v>
+      </c>
+      <c r="F138" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>443</v>
+        <v>39</v>
       </c>
       <c r="E139" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>754</v>
+      </c>
+      <c r="F139" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>444</v>
+        <v>614</v>
       </c>
       <c r="E140" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>755</v>
+      </c>
+      <c r="F140" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>445</v>
+        <v>615</v>
       </c>
       <c r="E141" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>756</v>
+      </c>
+      <c r="F141" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>446</v>
+        <v>616</v>
       </c>
       <c r="E142" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>757</v>
+      </c>
+      <c r="F142" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>447</v>
+        <v>617</v>
       </c>
       <c r="E143" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>758</v>
+      </c>
+      <c r="F143" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>448</v>
+        <v>618</v>
       </c>
       <c r="E144" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>759</v>
+      </c>
+      <c r="F144" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>412</v>
+        <v>619</v>
       </c>
       <c r="E145" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>760</v>
+      </c>
+      <c r="F145" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>88</v>
+        <v>620</v>
       </c>
       <c r="E146" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>761</v>
+      </c>
+      <c r="F146" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>449</v>
+        <v>621</v>
       </c>
       <c r="E147" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>762</v>
+      </c>
+      <c r="F147" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>450</v>
+        <v>622</v>
       </c>
       <c r="E148" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>763</v>
+      </c>
+      <c r="F148" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>451</v>
+        <v>623</v>
       </c>
       <c r="E149" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>764</v>
+      </c>
+      <c r="F149" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>452</v>
+        <v>624</v>
       </c>
       <c r="E150" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>765</v>
+      </c>
+      <c r="F150" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>453</v>
+        <v>625</v>
       </c>
       <c r="E151" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>766</v>
+      </c>
+      <c r="F151" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>454</v>
+        <v>626</v>
       </c>
       <c r="E152" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>767</v>
+      </c>
+      <c r="F152" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>455</v>
+        <v>627</v>
       </c>
       <c r="E153" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>768</v>
+      </c>
+      <c r="F153" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>27</v>
+        <v>583</v>
       </c>
       <c r="E154" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>721</v>
+      </c>
+      <c r="F154" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>456</v>
+        <v>89</v>
       </c>
       <c r="E155" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>769</v>
+      </c>
+      <c r="F155" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>457</v>
+        <v>628</v>
       </c>
       <c r="E156" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>770</v>
+      </c>
+      <c r="F156" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>449</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="E157" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>771</v>
+      </c>
+      <c r="F157" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>364</v>
+        <v>450</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>459</v>
+        <v>630</v>
       </c>
       <c r="E158" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>772</v>
+      </c>
+      <c r="F158" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>459</v>
+        <v>631</v>
       </c>
       <c r="E159" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>773</v>
+      </c>
+      <c r="F159" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>366</v>
+        <v>452</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>460</v>
+        <v>631</v>
       </c>
       <c r="E160" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>773</v>
+      </c>
+      <c r="F160" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>461</v>
+        <v>632</v>
       </c>
       <c r="E161" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>774</v>
+      </c>
+      <c r="F161" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>368</v>
+        <v>454</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>462</v>
+        <v>633</v>
       </c>
       <c r="E162" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>775</v>
+      </c>
+      <c r="F162" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>463</v>
+        <v>634</v>
       </c>
       <c r="E163" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>776</v>
+      </c>
+      <c r="F163" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>370</v>
+        <v>456</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>464</v>
+        <v>635</v>
       </c>
       <c r="E164" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>777</v>
+      </c>
+      <c r="F164" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>465</v>
+        <v>636</v>
       </c>
       <c r="E165" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>778</v>
+      </c>
+      <c r="F165" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>466</v>
+        <v>637</v>
       </c>
       <c r="E166" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>779</v>
+      </c>
+      <c r="F166" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>373</v>
+        <v>459</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>467</v>
+        <v>638</v>
       </c>
       <c r="E167" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>780</v>
+      </c>
+      <c r="F167" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>374</v>
+        <v>460</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>468</v>
+        <v>639</v>
       </c>
       <c r="E168" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>781</v>
+      </c>
+      <c r="F168" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>375</v>
+        <v>461</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>469</v>
+        <v>640</v>
       </c>
       <c r="E169" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>782</v>
+      </c>
+      <c r="F169" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>451</v>
+        <v>28</v>
       </c>
       <c r="E170" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>783</v>
+      </c>
+      <c r="F170" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>470</v>
+        <v>641</v>
       </c>
       <c r="E171" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>784</v>
+      </c>
+      <c r="F171" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>378</v>
+        <v>464</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>471</v>
+        <v>641</v>
       </c>
       <c r="E172" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>784</v>
+      </c>
+      <c r="F172" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>379</v>
+        <v>465</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>472</v>
+        <v>642</v>
       </c>
       <c r="E173" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>785</v>
+      </c>
+      <c r="F173" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>473</v>
+        <v>643</v>
       </c>
       <c r="E174" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>786</v>
+      </c>
+      <c r="F174" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>381</v>
+        <v>467</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>474</v>
+        <v>644</v>
       </c>
       <c r="E175" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>787</v>
+      </c>
+      <c r="F175" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>475</v>
+        <v>644</v>
       </c>
       <c r="E176" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>787</v>
+      </c>
+      <c r="F176" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>45</v>
+        <v>645</v>
       </c>
       <c r="E177" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>788</v>
+      </c>
+      <c r="F177" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>476</v>
+        <v>645</v>
       </c>
       <c r="E178" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>788</v>
+      </c>
+      <c r="F178" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>385</v>
+        <v>471</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>477</v>
+        <v>646</v>
       </c>
       <c r="E179" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>789</v>
+      </c>
+      <c r="F179" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>386</v>
+        <v>472</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>478</v>
+        <v>647</v>
       </c>
       <c r="E180" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>790</v>
+      </c>
+      <c r="F180" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>387</v>
+        <v>473</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>479</v>
+        <v>648</v>
       </c>
       <c r="E181" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>791</v>
+      </c>
+      <c r="F181" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>412</v>
+        <v>649</v>
       </c>
       <c r="E182" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>792</v>
+      </c>
+      <c r="F182" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="E183" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>793</v>
+      </c>
+      <c r="F183" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>481</v>
+        <v>651</v>
       </c>
       <c r="E184" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>794</v>
+      </c>
+      <c r="F184" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>482</v>
+        <v>651</v>
       </c>
       <c r="E185" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>795</v>
+      </c>
+      <c r="F185" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>59</v>
+        <v>652</v>
       </c>
       <c r="E186" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>796</v>
+      </c>
+      <c r="F186" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>393</v>
+        <v>479</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>474</v>
+        <v>653</v>
       </c>
       <c r="E187" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>797</v>
+      </c>
+      <c r="F187" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>394</v>
+        <v>480</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>51</v>
+        <v>654</v>
       </c>
       <c r="E188" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>798</v>
+      </c>
+      <c r="F188" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>48</v>
+        <v>655</v>
       </c>
       <c r="E189" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>799</v>
+      </c>
+      <c r="F189" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>483</v>
+        <v>656</v>
       </c>
       <c r="E190" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>800</v>
+      </c>
+      <c r="F190" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>397</v>
+        <v>483</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>64</v>
+        <v>657</v>
       </c>
       <c r="E191" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>801</v>
+      </c>
+      <c r="F191" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>484</v>
+        <v>658</v>
       </c>
       <c r="E192" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>802</v>
+      </c>
+      <c r="F192" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>42</v>
+        <v>659</v>
       </c>
       <c r="E193" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>803</v>
+      </c>
+      <c r="F193" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>34</v>
+        <v>660</v>
       </c>
       <c r="E194" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>804</v>
+      </c>
+      <c r="F194" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>401</v>
+        <v>487</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>49</v>
+        <v>661</v>
       </c>
       <c r="E195" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>805</v>
+      </c>
+      <c r="F195" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>402</v>
+        <v>488</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>36</v>
+        <v>662</v>
       </c>
       <c r="E196" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>806</v>
+      </c>
+      <c r="F196" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>485</v>
+        <v>663</v>
       </c>
       <c r="E197" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>807</v>
+      </c>
+      <c r="F197" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>404</v>
+        <v>490</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>486</v>
+        <v>664</v>
       </c>
       <c r="E198" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>808</v>
+      </c>
+      <c r="F198" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>487</v>
+        <v>665</v>
       </c>
       <c r="E199" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>809</v>
+      </c>
+      <c r="F199" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>406</v>
+        <v>492</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>488</v>
+        <v>633</v>
       </c>
       <c r="E200" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>775</v>
+      </c>
+      <c r="F200" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>407</v>
+        <v>493</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>489</v>
+        <v>666</v>
       </c>
       <c r="E201" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>810</v>
+      </c>
+      <c r="F201" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>490</v>
+        <v>667</v>
       </c>
       <c r="E202" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>811</v>
+      </c>
+      <c r="F202" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>474</v>
+        <v>668</v>
       </c>
       <c r="E203" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>812</v>
+      </c>
+      <c r="F203" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>410</v>
+        <v>496</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>25</v>
+        <v>669</v>
       </c>
       <c r="E204" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>813</v>
+      </c>
+      <c r="F204" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C205" t="s">
+        <v>497</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E205" t="s">
+        <v>814</v>
+      </c>
+      <c r="F205" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206" t="s">
+        <v>498</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E206" t="s">
+        <v>815</v>
+      </c>
+      <c r="F206" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207" t="s">
+        <v>499</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E207" t="s">
+        <v>816</v>
+      </c>
+      <c r="F207" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208" t="s">
+        <v>500</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E208" t="s">
+        <v>817</v>
+      </c>
+      <c r="F208" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="C205" t="s">
-        <v>411</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="B209" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C209" t="s">
+        <v>501</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E209" t="s">
+        <v>818</v>
+      </c>
+      <c r="F209" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C210" t="s">
+        <v>502</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E210" t="s">
+        <v>819</v>
+      </c>
+      <c r="F210" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211" t="s">
+        <v>503</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E211" t="s">
+        <v>820</v>
+      </c>
+      <c r="F211" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212" t="s">
+        <v>504</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E212" t="s">
+        <v>821</v>
+      </c>
+      <c r="F212" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C213" t="s">
+        <v>505</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E213" t="s">
+        <v>822</v>
+      </c>
+      <c r="F213" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214" t="s">
+        <v>506</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E214" t="s">
+        <v>823</v>
+      </c>
+      <c r="F214" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215" t="s">
+        <v>507</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E215" t="s">
+        <v>824</v>
+      </c>
+      <c r="F215" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" t="s">
+        <v>508</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E216" t="s">
+        <v>825</v>
+      </c>
+      <c r="F216" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" t="s">
+        <v>509</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E217" t="s">
+        <v>826</v>
+      </c>
+      <c r="F217" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218" t="s">
+        <v>510</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E218" t="s">
+        <v>827</v>
+      </c>
+      <c r="F218" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C219" t="s">
+        <v>511</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E219" t="s">
+        <v>828</v>
+      </c>
+      <c r="F219" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C220" t="s">
+        <v>512</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E220" t="s">
+        <v>730</v>
+      </c>
+      <c r="F220" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221" t="s">
+        <v>513</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E221" t="s">
+        <v>772</v>
+      </c>
+      <c r="F221" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C222" t="s">
+        <v>514</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E222" t="s">
+        <v>829</v>
+      </c>
+      <c r="F222" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" t="s">
+        <v>515</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E223" t="s">
+        <v>822</v>
+      </c>
+      <c r="F223" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" t="s">
+        <v>516</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E224" t="s">
+        <v>830</v>
+      </c>
+      <c r="F224" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>517</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E225" t="s">
+        <v>831</v>
+      </c>
+      <c r="F225" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" t="s">
+        <v>518</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E226" t="s">
+        <v>832</v>
+      </c>
+      <c r="F226" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" t="s">
+        <v>519</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E227" t="s">
+        <v>833</v>
+      </c>
+      <c r="F227" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228" t="s">
+        <v>520</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E228" t="s">
+        <v>834</v>
+      </c>
+      <c r="F228" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229" t="s">
+        <v>521</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E229" t="s">
+        <v>835</v>
+      </c>
+      <c r="F229" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230" t="s">
+        <v>522</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E230" t="s">
+        <v>728</v>
+      </c>
+      <c r="F230" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" t="s">
+        <v>523</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E231" t="s">
+        <v>836</v>
+      </c>
+      <c r="F231" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" t="s">
+        <v>524</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E232" t="s">
+        <v>837</v>
+      </c>
+      <c r="F232" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233" t="s">
+        <v>525</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E233" t="s">
+        <v>838</v>
+      </c>
+      <c r="F233" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" t="s">
+        <v>526</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E234" t="s">
+        <v>839</v>
+      </c>
+      <c r="F234" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" t="s">
+        <v>527</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E235" t="s">
+        <v>840</v>
+      </c>
+      <c r="F235" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" t="s">
+        <v>528</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E236" t="s">
+        <v>774</v>
+      </c>
+      <c r="F236" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237" t="s">
+        <v>529</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E237" t="s">
+        <v>841</v>
+      </c>
+      <c r="F237" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" t="s">
+        <v>530</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E238" t="s">
+        <v>721</v>
+      </c>
+      <c r="F238" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239" t="s">
+        <v>531</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E239" t="s">
+        <v>842</v>
+      </c>
+      <c r="F239" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" t="s">
+        <v>532</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E240" t="s">
+        <v>843</v>
+      </c>
+      <c r="F240" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241" t="s">
+        <v>533</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E241" t="s">
+        <v>844</v>
+      </c>
+      <c r="F241" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242" t="s">
+        <v>534</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E242" t="s">
+        <v>813</v>
+      </c>
+      <c r="F242" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" t="s">
+        <v>535</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E243" t="s">
+        <v>826</v>
+      </c>
+      <c r="F243" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" t="s">
+        <v>536</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E244" t="s">
+        <v>845</v>
+      </c>
+      <c r="F244" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C245" t="s">
+        <v>537</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E245" t="s">
+        <v>846</v>
+      </c>
+      <c r="F245" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246" t="s">
+        <v>538</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E246" t="s">
+        <v>831</v>
+      </c>
+      <c r="F246" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C247" t="s">
+        <v>539</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E247" t="s">
+        <v>847</v>
+      </c>
+      <c r="F247" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C248" t="s">
+        <v>540</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E248" t="s">
+        <v>848</v>
+      </c>
+      <c r="F248" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C249" t="s">
+        <v>541</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E249" t="s">
+        <v>849</v>
+      </c>
+      <c r="F249" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250" t="s">
+        <v>542</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E250" t="s">
+        <v>850</v>
+      </c>
+      <c r="F250" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251" t="s">
+        <v>543</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E251" t="s">
+        <v>851</v>
+      </c>
+      <c r="F251" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C252" t="s">
+        <v>544</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E252" t="s">
+        <v>852</v>
+      </c>
+      <c r="F252" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C253" t="s">
+        <v>545</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E205" t="s">
-        <v>585</v>
+      <c r="E253" t="s">
+        <v>853</v>
+      </c>
+      <c r="F253" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C254" t="s">
+        <v>546</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E254" t="s">
+        <v>854</v>
+      </c>
+      <c r="F254" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C255" t="s">
+        <v>547</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E255" t="s">
+        <v>855</v>
+      </c>
+      <c r="F255" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" t="s">
+        <v>548</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E256" t="s">
+        <v>728</v>
+      </c>
+      <c r="F256" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257" t="s">
+        <v>549</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E257" t="s">
+        <v>856</v>
+      </c>
+      <c r="F257" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258" t="s">
+        <v>550</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" t="s">
+        <v>857</v>
+      </c>
+      <c r="F258" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C259" t="s">
+        <v>551</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E259" t="s">
+        <v>842</v>
+      </c>
+      <c r="F259" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C260" t="s">
+        <v>552</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E260" t="s">
+        <v>821</v>
+      </c>
+      <c r="F260" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C261" t="s">
+        <v>553</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E261" t="s">
+        <v>858</v>
+      </c>
+      <c r="F261" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C262" t="s">
+        <v>554</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E262" t="s">
+        <v>859</v>
+      </c>
+      <c r="F262" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C263" t="s">
+        <v>555</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E263" t="s">
+        <v>860</v>
+      </c>
+      <c r="F263" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C264" t="s">
+        <v>556</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E264" t="s">
+        <v>804</v>
+      </c>
+      <c r="F264" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C265" t="s">
+        <v>557</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E265" t="s">
+        <v>861</v>
+      </c>
+      <c r="F265" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C266" t="s">
+        <v>558</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E266" t="s">
+        <v>847</v>
+      </c>
+      <c r="F266" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C267" t="s">
+        <v>559</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E267" t="s">
+        <v>862</v>
+      </c>
+      <c r="F267" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C268" t="s">
+        <v>560</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E268" t="s">
+        <v>862</v>
+      </c>
+      <c r="F268" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269" t="s">
+        <v>561</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E269" t="s">
+        <v>863</v>
+      </c>
+      <c r="F269" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C270" t="s">
+        <v>562</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E270" t="s">
+        <v>863</v>
+      </c>
+      <c r="F270" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C271" t="s">
+        <v>563</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E271" t="s">
+        <v>864</v>
+      </c>
+      <c r="F271" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C272" t="s">
+        <v>564</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E272" t="s">
+        <v>864</v>
+      </c>
+      <c r="F272" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C273" t="s">
+        <v>565</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E273" t="s">
+        <v>847</v>
+      </c>
+      <c r="F273" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C274" t="s">
+        <v>566</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E274" t="s">
+        <v>865</v>
+      </c>
+      <c r="F274" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C275" t="s">
+        <v>567</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E275" t="s">
+        <v>866</v>
+      </c>
+      <c r="F275" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C276" t="s">
+        <v>568</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E276" t="s">
+        <v>867</v>
+      </c>
+      <c r="F276" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C277" t="s">
+        <v>569</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E277" t="s">
+        <v>859</v>
+      </c>
+      <c r="F277" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C278" t="s">
+        <v>570</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E278" t="s">
+        <v>868</v>
+      </c>
+      <c r="F278" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C279" t="s">
+        <v>571</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E279" t="s">
+        <v>869</v>
+      </c>
+      <c r="F279" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C280" t="s">
+        <v>572</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E280" t="s">
+        <v>870</v>
+      </c>
+      <c r="F280" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C281" t="s">
+        <v>573</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E281" t="s">
+        <v>859</v>
+      </c>
+      <c r="F281" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C282" t="s">
+        <v>574</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E282" t="s">
+        <v>871</v>
+      </c>
+      <c r="F282" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C283" t="s">
+        <v>575</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E283" t="s">
+        <v>740</v>
+      </c>
+      <c r="F283" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C284" t="s">
+        <v>576</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E284" t="s">
+        <v>872</v>
+      </c>
+      <c r="F284" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C285" t="s">
+        <v>577</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E285" t="s">
+        <v>826</v>
+      </c>
+      <c r="F285" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C286" t="s">
+        <v>578</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E286" t="s">
+        <v>873</v>
+      </c>
+      <c r="F286" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C287" t="s">
+        <v>579</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E287" t="s">
+        <v>874</v>
+      </c>
+      <c r="F287" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C288" t="s">
+        <v>580</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E288" t="s">
+        <v>787</v>
+      </c>
+      <c r="F288" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C289" t="s">
+        <v>581</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E289" t="s">
+        <v>852</v>
+      </c>
+      <c r="F289" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C290" t="s">
+        <v>582</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E290" t="s">
+        <v>875</v>
+      </c>
+      <c r="F290" t="s">
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -5842,204 +9339,374 @@
     <hyperlink ref="D105" r:id="rId208"/>
     <hyperlink ref="B106" r:id="rId209" location="AFR_0000951"/>
     <hyperlink ref="D106" r:id="rId210"/>
-    <hyperlink ref="B107" r:id="rId211" location="AFE_0000407"/>
+    <hyperlink ref="B107" r:id="rId211" location="AFC_0000166"/>
     <hyperlink ref="D107" r:id="rId212"/>
-    <hyperlink ref="B108" r:id="rId213" location="AFR_0000957"/>
+    <hyperlink ref="B108" r:id="rId213" location="AFM_0000275"/>
     <hyperlink ref="D108" r:id="rId214"/>
-    <hyperlink ref="B109" r:id="rId215" location="AFR_0000917"/>
+    <hyperlink ref="B109" r:id="rId215" location="AFR_0000900"/>
     <hyperlink ref="D109" r:id="rId216"/>
-    <hyperlink ref="B110" r:id="rId217" location="AFE_0000004"/>
+    <hyperlink ref="B110" r:id="rId217" location="AFE_0000407"/>
     <hyperlink ref="D110" r:id="rId218"/>
-    <hyperlink ref="B111" r:id="rId219" location="AFE_0000354"/>
+    <hyperlink ref="B111" r:id="rId219" location="AFR_0000957"/>
     <hyperlink ref="D111" r:id="rId220"/>
-    <hyperlink ref="B112" r:id="rId221" location="AFE_0000023"/>
+    <hyperlink ref="B112" r:id="rId221" location="AFR_0000917"/>
     <hyperlink ref="D112" r:id="rId222"/>
-    <hyperlink ref="B113" r:id="rId223" location="AFE_0002145"/>
+    <hyperlink ref="B113" r:id="rId223" location="AFM_0000880"/>
     <hyperlink ref="D113" r:id="rId224"/>
-    <hyperlink ref="B114" r:id="rId225" location="AFE_0000038"/>
+    <hyperlink ref="B114" r:id="rId225" location="Collection"/>
     <hyperlink ref="D114" r:id="rId226"/>
-    <hyperlink ref="B115" r:id="rId227" location="AFE_0000073"/>
+    <hyperlink ref="B115" r:id="rId227" location="AFC_0000160"/>
     <hyperlink ref="D115" r:id="rId228"/>
-    <hyperlink ref="B116" r:id="rId229" location="AFE_0000078"/>
+    <hyperlink ref="B116" r:id="rId229" location="AFE_0000004"/>
     <hyperlink ref="D116" r:id="rId230"/>
-    <hyperlink ref="B117" r:id="rId231" location="AFE_0000217"/>
+    <hyperlink ref="B117" r:id="rId231" location="AFE_0000354"/>
     <hyperlink ref="D117" r:id="rId232"/>
-    <hyperlink ref="B118" r:id="rId233" location="AFE_0000088"/>
+    <hyperlink ref="B118" r:id="rId233" location="AFE_0000023"/>
     <hyperlink ref="D118" r:id="rId234"/>
-    <hyperlink ref="B119" r:id="rId235" location="AFE_0000105"/>
+    <hyperlink ref="B119" r:id="rId235" location="AFE_0002145"/>
     <hyperlink ref="D119" r:id="rId236"/>
-    <hyperlink ref="B120" r:id="rId237" location="AFE_0000129"/>
+    <hyperlink ref="B120" r:id="rId237" location="AFE_0000038"/>
     <hyperlink ref="D120" r:id="rId238"/>
-    <hyperlink ref="B121" r:id="rId239" location="AFE_0000825"/>
+    <hyperlink ref="B121" r:id="rId239" location="AFE_0000073"/>
     <hyperlink ref="D121" r:id="rId240"/>
-    <hyperlink ref="B122" r:id="rId241" location="AFP_0001404"/>
+    <hyperlink ref="B122" r:id="rId241" location="AFE_0000078"/>
     <hyperlink ref="D122" r:id="rId242"/>
-    <hyperlink ref="B123" r:id="rId243" location="AFE_0000462"/>
+    <hyperlink ref="B123" r:id="rId243" location="AFE_0000217"/>
     <hyperlink ref="D123" r:id="rId244"/>
-    <hyperlink ref="B124" r:id="rId245" location="AFE_0000185"/>
+    <hyperlink ref="B124" r:id="rId245" location="AFE_0000088"/>
     <hyperlink ref="D124" r:id="rId246"/>
-    <hyperlink ref="B125" r:id="rId247" location="AFE_0000201"/>
+    <hyperlink ref="B125" r:id="rId247" location="AFE_0000317"/>
     <hyperlink ref="D125" r:id="rId248"/>
-    <hyperlink ref="B126" r:id="rId249" location="AFE_0000693"/>
+    <hyperlink ref="B126" r:id="rId249" location="AFE_0000129"/>
     <hyperlink ref="D126" r:id="rId250"/>
-    <hyperlink ref="B127" r:id="rId251" location="AFE_0000209"/>
+    <hyperlink ref="B127" r:id="rId251" location="AFE_0000825"/>
     <hyperlink ref="D127" r:id="rId252"/>
-    <hyperlink ref="B128" r:id="rId253" location="AFE_0002188"/>
+    <hyperlink ref="B128" r:id="rId253" location="AFP_0001404"/>
     <hyperlink ref="D128" r:id="rId254"/>
-    <hyperlink ref="B129" r:id="rId255" location="AFR_0001844"/>
+    <hyperlink ref="B129" r:id="rId255" location="AFE_0000462"/>
     <hyperlink ref="D129" r:id="rId256"/>
-    <hyperlink ref="B130" r:id="rId257" location="AFE_0000299"/>
+    <hyperlink ref="B130" r:id="rId257" location="AFE_0000185"/>
     <hyperlink ref="D130" r:id="rId258"/>
-    <hyperlink ref="B131" r:id="rId259" location="AFE_0000316"/>
+    <hyperlink ref="B131" r:id="rId259" location="AFE_0000201"/>
     <hyperlink ref="D131" r:id="rId260"/>
-    <hyperlink ref="B132" r:id="rId261" location="AFE_0000363"/>
+    <hyperlink ref="B132" r:id="rId261" location="AFE_0000693"/>
     <hyperlink ref="D132" r:id="rId262"/>
-    <hyperlink ref="B133" r:id="rId263" location="AFR_0001584"/>
+    <hyperlink ref="B133" r:id="rId263" location="AFE_0000209"/>
     <hyperlink ref="D133" r:id="rId264"/>
-    <hyperlink ref="B134" r:id="rId265" location="AFE_0000430"/>
+    <hyperlink ref="B134" r:id="rId265" location="AFE_0002188"/>
     <hyperlink ref="D134" r:id="rId266"/>
-    <hyperlink ref="B135" r:id="rId267" location="AFE_0000648"/>
+    <hyperlink ref="B135" r:id="rId267" location="AFR_0001844"/>
     <hyperlink ref="D135" r:id="rId268"/>
-    <hyperlink ref="B136" r:id="rId269" location="AFE_0000534"/>
+    <hyperlink ref="B136" r:id="rId269" location="AFE_0000299"/>
     <hyperlink ref="D136" r:id="rId270"/>
-    <hyperlink ref="B137" r:id="rId271" location="AFE_0000642"/>
+    <hyperlink ref="B137" r:id="rId271" location="AFE_0000316"/>
     <hyperlink ref="D137" r:id="rId272"/>
-    <hyperlink ref="B138" r:id="rId273" location="AFE_0000692"/>
+    <hyperlink ref="B138" r:id="rId273" location="AFE_0000363"/>
     <hyperlink ref="D138" r:id="rId274"/>
-    <hyperlink ref="B139" r:id="rId275" location="AFE_0000746"/>
+    <hyperlink ref="B139" r:id="rId275" location="AFR_0001584"/>
     <hyperlink ref="D139" r:id="rId276"/>
-    <hyperlink ref="B140" r:id="rId277" location="AFFN_0000052"/>
+    <hyperlink ref="B140" r:id="rId277" location="AFE_0000430"/>
     <hyperlink ref="D140" r:id="rId278"/>
-    <hyperlink ref="B141" r:id="rId279" location="AFE_0001695"/>
+    <hyperlink ref="B141" r:id="rId279" location="AFE_0000648"/>
     <hyperlink ref="D141" r:id="rId280"/>
-    <hyperlink ref="B142" r:id="rId281" location="AFE_0001763"/>
+    <hyperlink ref="B142" r:id="rId281" location="AFE_0002148"/>
     <hyperlink ref="D142" r:id="rId282"/>
-    <hyperlink ref="B143" r:id="rId283" location="AFE_0002102"/>
+    <hyperlink ref="B143" r:id="rId283" location="AFE_0000534"/>
     <hyperlink ref="D143" r:id="rId284"/>
-    <hyperlink ref="B144" r:id="rId285" location="AFE_0002198"/>
+    <hyperlink ref="B144" r:id="rId285" location="AFE_0000642"/>
     <hyperlink ref="D144" r:id="rId286"/>
-    <hyperlink ref="B145" r:id="rId287" location="AFR_0000937"/>
+    <hyperlink ref="B145" r:id="rId287" location="AFE_0000692"/>
     <hyperlink ref="D145" r:id="rId288"/>
-    <hyperlink ref="B146" r:id="rId289" location="AFE_0002210"/>
+    <hyperlink ref="B146" r:id="rId289" location="AFE_0000746"/>
     <hyperlink ref="D146" r:id="rId290"/>
-    <hyperlink ref="B147" r:id="rId291" location="AFE_0002276"/>
+    <hyperlink ref="B147" r:id="rId291" location="AFE_0000761"/>
     <hyperlink ref="D147" r:id="rId292"/>
-    <hyperlink ref="B148" r:id="rId293" location="AFE_0002277"/>
+    <hyperlink ref="B148" r:id="rId293" location="AFP_0000225"/>
     <hyperlink ref="D148" r:id="rId294"/>
-    <hyperlink ref="B149" r:id="rId295" location="AFP_0003666"/>
+    <hyperlink ref="B149" r:id="rId295" location="AFE_0000811"/>
     <hyperlink ref="D149" r:id="rId296"/>
-    <hyperlink ref="B150" r:id="rId297" location="AFFN_0000031"/>
+    <hyperlink ref="B150" r:id="rId297" location="AFE_0001695"/>
     <hyperlink ref="D150" r:id="rId298"/>
-    <hyperlink ref="B151" r:id="rId299" location="AFP_0000498"/>
+    <hyperlink ref="B151" r:id="rId299" location="AFE_0001763"/>
     <hyperlink ref="D151" r:id="rId300"/>
-    <hyperlink ref="B152" r:id="rId301" location="AFP_0003553"/>
+    <hyperlink ref="B152" r:id="rId301" location="AFE_0002102"/>
     <hyperlink ref="D152" r:id="rId302"/>
-    <hyperlink ref="B153" r:id="rId303" location="AFFN_0000142"/>
+    <hyperlink ref="B153" r:id="rId303" location="AFE_0002198"/>
     <hyperlink ref="D153" r:id="rId304"/>
-    <hyperlink ref="B154" r:id="rId305" location="AFM_0000105"/>
+    <hyperlink ref="B154" r:id="rId305" location="AFR_0000937"/>
     <hyperlink ref="D154" r:id="rId306"/>
-    <hyperlink ref="B155" r:id="rId307"/>
+    <hyperlink ref="B155" r:id="rId307" location="AFE_0002210"/>
     <hyperlink ref="D155" r:id="rId308"/>
-    <hyperlink ref="B156" r:id="rId309" location="AFM_0001023"/>
+    <hyperlink ref="B156" r:id="rId309" location="AFE_0002276"/>
     <hyperlink ref="D156" r:id="rId310"/>
-    <hyperlink ref="B157" r:id="rId311" location="AFM_0001028"/>
+    <hyperlink ref="B157" r:id="rId311" location="AFE_0002277"/>
     <hyperlink ref="D157" r:id="rId312"/>
-    <hyperlink ref="B158" r:id="rId313" location="AFM_0001085"/>
+    <hyperlink ref="B158" r:id="rId313" location="AFP_0002389"/>
     <hyperlink ref="D158" r:id="rId314"/>
-    <hyperlink ref="B159" r:id="rId315"/>
+    <hyperlink ref="B159" r:id="rId315" location="AFP_0003385"/>
     <hyperlink ref="D159" r:id="rId316"/>
-    <hyperlink ref="B160" r:id="rId317" location="AFP_0000812"/>
+    <hyperlink ref="B160" r:id="rId317" location="AFP_0003564"/>
     <hyperlink ref="D160" r:id="rId318"/>
-    <hyperlink ref="B161" r:id="rId319" location="AFRL_0000269"/>
+    <hyperlink ref="B161" r:id="rId319" location="AFP_0003305"/>
     <hyperlink ref="D161" r:id="rId320"/>
-    <hyperlink ref="B162" r:id="rId321" location="AFP_0001801"/>
+    <hyperlink ref="B162" r:id="rId321" location="AFP_0003666"/>
     <hyperlink ref="D162" r:id="rId322"/>
-    <hyperlink ref="B163" r:id="rId323" location="AFP_0000669"/>
+    <hyperlink ref="B163" r:id="rId323" location="AFP_0000498"/>
     <hyperlink ref="D163" r:id="rId324"/>
-    <hyperlink ref="B164" r:id="rId325" location="AFP_0003598"/>
+    <hyperlink ref="B164" r:id="rId325" location="AFP_0003553"/>
     <hyperlink ref="D164" r:id="rId326"/>
-    <hyperlink ref="B165" r:id="rId327" location="AFP_0002680"/>
+    <hyperlink ref="B165" r:id="rId327" location="AFFN_0000142"/>
     <hyperlink ref="D165" r:id="rId328"/>
-    <hyperlink ref="B166" r:id="rId329" location="AFP_0001348"/>
+    <hyperlink ref="B166" r:id="rId329" location="AFP_0003634"/>
     <hyperlink ref="D166" r:id="rId330"/>
-    <hyperlink ref="B167" r:id="rId331" location="AFP_0003716"/>
+    <hyperlink ref="B167" r:id="rId331"/>
     <hyperlink ref="D167" r:id="rId332"/>
-    <hyperlink ref="B168" r:id="rId333" location="AFP_0001367"/>
+    <hyperlink ref="B168" r:id="rId333"/>
     <hyperlink ref="D168" r:id="rId334"/>
-    <hyperlink ref="B169" r:id="rId335" location="AFP_0001530"/>
+    <hyperlink ref="B169" r:id="rId335" location="AFM_0000085"/>
     <hyperlink ref="D169" r:id="rId336"/>
-    <hyperlink ref="B170" r:id="rId337" location="AFP_0001611"/>
+    <hyperlink ref="B170" r:id="rId337" location="AFM_0000105"/>
     <hyperlink ref="D170" r:id="rId338"/>
-    <hyperlink ref="B171" r:id="rId339" location="AFP_0001640"/>
+    <hyperlink ref="B171" r:id="rId339" location="AFM_0000154"/>
     <hyperlink ref="D171" r:id="rId340"/>
-    <hyperlink ref="B172" r:id="rId341" location="AFP_0001878"/>
+    <hyperlink ref="B172" r:id="rId341" location="AFQ_0000114"/>
     <hyperlink ref="D172" r:id="rId342"/>
-    <hyperlink ref="B173" r:id="rId343" location="AFP_0003331"/>
+    <hyperlink ref="B173" r:id="rId343" location="AFM_0000341"/>
     <hyperlink ref="D173" r:id="rId344"/>
-    <hyperlink ref="B174" r:id="rId345" location="AFP_0003591"/>
+    <hyperlink ref="B174" r:id="rId345"/>
     <hyperlink ref="D174" r:id="rId346"/>
-    <hyperlink ref="B175" r:id="rId347" location="AFR_0001209"/>
+    <hyperlink ref="B175" r:id="rId347" location="AFM_0000386"/>
     <hyperlink ref="D175" r:id="rId348"/>
-    <hyperlink ref="B176" r:id="rId349" location="AFP_0003770"/>
+    <hyperlink ref="B176" r:id="rId349" location="AFQ_0000112"/>
     <hyperlink ref="D176" r:id="rId350"/>
-    <hyperlink ref="B177" r:id="rId351" location="AFQ_0000065"/>
+    <hyperlink ref="B177" r:id="rId351" location="AFM_0000403"/>
     <hyperlink ref="D177" r:id="rId352"/>
-    <hyperlink ref="B178" r:id="rId353" location="AFQ_0000252"/>
+    <hyperlink ref="B178" r:id="rId353" location="AFQ_0000113"/>
     <hyperlink ref="D178" r:id="rId354"/>
-    <hyperlink ref="B179" r:id="rId355" location="AFR_0000694"/>
+    <hyperlink ref="B179" r:id="rId355" location="AFM_0000435"/>
     <hyperlink ref="D179" r:id="rId356"/>
-    <hyperlink ref="B180" r:id="rId357" location="AFR_0000941"/>
+    <hyperlink ref="B180" r:id="rId357" location="AFM_0001023"/>
     <hyperlink ref="D180" r:id="rId358"/>
-    <hyperlink ref="B181" r:id="rId359" location="AFR_0001501"/>
+    <hyperlink ref="B181" r:id="rId359" location="AFM_0001028"/>
     <hyperlink ref="D181" r:id="rId360"/>
-    <hyperlink ref="B182" r:id="rId361" location="AFR_0000966"/>
+    <hyperlink ref="B182" r:id="rId361" location="AFM_0001055"/>
     <hyperlink ref="D182" r:id="rId362"/>
-    <hyperlink ref="B183" r:id="rId363" location="AFR_0000984"/>
+    <hyperlink ref="B183" r:id="rId363" location="AFM_0001084"/>
     <hyperlink ref="D183" r:id="rId364"/>
-    <hyperlink ref="B184" r:id="rId365" location="AFR_0001064"/>
+    <hyperlink ref="B184" r:id="rId365" location="AFM_0001085"/>
     <hyperlink ref="D184" r:id="rId366"/>
-    <hyperlink ref="B185" r:id="rId367" location="AFR_0001087"/>
+    <hyperlink ref="B185" r:id="rId367"/>
     <hyperlink ref="D185" r:id="rId368"/>
-    <hyperlink ref="B186" r:id="rId369" location="AFR_0001111"/>
+    <hyperlink ref="B186" r:id="rId369" location="AFP_0000812"/>
     <hyperlink ref="D186" r:id="rId370"/>
-    <hyperlink ref="B187" r:id="rId371" location="AFRL_0000325"/>
+    <hyperlink ref="B187" r:id="rId371" location="AFRL_0000269"/>
     <hyperlink ref="D187" r:id="rId372"/>
-    <hyperlink ref="B188" r:id="rId373" location="AFR_0001216"/>
+    <hyperlink ref="B188" r:id="rId373" location="AFP_0003811"/>
     <hyperlink ref="D188" r:id="rId374"/>
-    <hyperlink ref="B189" r:id="rId375" location="AFR_0001218"/>
+    <hyperlink ref="B189" r:id="rId375" location="AFP_0001801"/>
     <hyperlink ref="D189" r:id="rId376"/>
-    <hyperlink ref="B190" r:id="rId377" location="AFR_0001532"/>
+    <hyperlink ref="B190" r:id="rId377" location="AFP_0000669"/>
     <hyperlink ref="D190" r:id="rId378"/>
-    <hyperlink ref="B191" r:id="rId379" location="AFR_0001586"/>
+    <hyperlink ref="B191" r:id="rId379" location="AFP_0003282"/>
     <hyperlink ref="D191" r:id="rId380"/>
-    <hyperlink ref="B192" r:id="rId381" location="AFRL_0000127"/>
+    <hyperlink ref="B192" r:id="rId381" location="AFP_0001993"/>
     <hyperlink ref="D192" r:id="rId382"/>
-    <hyperlink ref="B193" r:id="rId383" location="AFR_0001817"/>
+    <hyperlink ref="B193" r:id="rId383" location="AFP_0002680"/>
     <hyperlink ref="D193" r:id="rId384"/>
-    <hyperlink ref="B194" r:id="rId385" location="AFR_0001843"/>
+    <hyperlink ref="B194" r:id="rId385" location="AFRL_0000035"/>
     <hyperlink ref="D194" r:id="rId386"/>
-    <hyperlink ref="B195" r:id="rId387" location="AFR_0001881"/>
+    <hyperlink ref="B195" r:id="rId387" location="AFP_0003491"/>
     <hyperlink ref="D195" r:id="rId388"/>
-    <hyperlink ref="B196" r:id="rId389" location="AFR_0001918"/>
+    <hyperlink ref="B196" r:id="rId389" location="AFP_0001348"/>
     <hyperlink ref="D196" r:id="rId390"/>
-    <hyperlink ref="B197" r:id="rId391" location="AFR_0002208"/>
+    <hyperlink ref="B197" r:id="rId391" location="AFP_0003716"/>
     <hyperlink ref="D197" r:id="rId392"/>
-    <hyperlink ref="B198" r:id="rId393" location="AFR_0002744"/>
+    <hyperlink ref="B198" r:id="rId393" location="AFP_0001367"/>
     <hyperlink ref="D198" r:id="rId394"/>
-    <hyperlink ref="B199" r:id="rId395" location="AFRL_0000213"/>
+    <hyperlink ref="B199" r:id="rId395" location="AFP_0001530"/>
     <hyperlink ref="D199" r:id="rId396"/>
-    <hyperlink ref="B200" r:id="rId397" location="AFRL_0000219"/>
+    <hyperlink ref="B200" r:id="rId397" location="AFP_0001611"/>
     <hyperlink ref="D200" r:id="rId398"/>
-    <hyperlink ref="B201" r:id="rId399" location="AFRL_0000270"/>
+    <hyperlink ref="B201" r:id="rId399" location="AFP_0001640"/>
     <hyperlink ref="D201" r:id="rId400"/>
-    <hyperlink ref="B202" r:id="rId401" location="AFRL_0000352"/>
+    <hyperlink ref="B202" r:id="rId401" location="AFP_0001878"/>
     <hyperlink ref="D202" r:id="rId402"/>
-    <hyperlink ref="B203" r:id="rId403" location="AFRL_0000370"/>
+    <hyperlink ref="B203" r:id="rId403" location="AFP_0001824"/>
     <hyperlink ref="D203" r:id="rId404"/>
-    <hyperlink ref="B204" r:id="rId405" location="AFSP_0000001"/>
+    <hyperlink ref="B204" r:id="rId405"/>
     <hyperlink ref="D204" r:id="rId406"/>
-    <hyperlink ref="B205" r:id="rId407" location="Dimension"/>
+    <hyperlink ref="B205" r:id="rId407" location="AFP_0003284"/>
     <hyperlink ref="D205" r:id="rId408"/>
+    <hyperlink ref="B206" r:id="rId409" location="AFP_0003403"/>
+    <hyperlink ref="D206" r:id="rId410"/>
+    <hyperlink ref="B207" r:id="rId411" location="AFP_0003331"/>
+    <hyperlink ref="D207" r:id="rId412"/>
+    <hyperlink ref="B208" r:id="rId413" location="AFRL_0000148"/>
+    <hyperlink ref="D208" r:id="rId414"/>
+    <hyperlink ref="B209" r:id="rId415" location="AFRL_0000147"/>
+    <hyperlink ref="D209" r:id="rId416"/>
+    <hyperlink ref="B210" r:id="rId417" location="AFP_0003464"/>
+    <hyperlink ref="D210" r:id="rId418"/>
+    <hyperlink ref="B211" r:id="rId419" location="AFP_0003424"/>
+    <hyperlink ref="D211" r:id="rId420"/>
+    <hyperlink ref="B212" r:id="rId421" location="AFR_0001004"/>
+    <hyperlink ref="D212" r:id="rId422"/>
+    <hyperlink ref="B213" r:id="rId423" location="AFP_0003572"/>
+    <hyperlink ref="D213" r:id="rId424"/>
+    <hyperlink ref="B214" r:id="rId425" location="AFP_0003591"/>
+    <hyperlink ref="D214" r:id="rId426"/>
+    <hyperlink ref="B215" r:id="rId427" location="AFP_0003603"/>
+    <hyperlink ref="D215" r:id="rId428"/>
+    <hyperlink ref="B216" r:id="rId429" location="AFP_0003623"/>
+    <hyperlink ref="D216" r:id="rId430"/>
+    <hyperlink ref="B217" r:id="rId431" location="AFR_0001209"/>
+    <hyperlink ref="D217" r:id="rId432"/>
+    <hyperlink ref="B218" r:id="rId433" location="AFR_0001494"/>
+    <hyperlink ref="D218" r:id="rId434"/>
+    <hyperlink ref="B219" r:id="rId435" location="AFP_0003657"/>
+    <hyperlink ref="D219" r:id="rId436"/>
+    <hyperlink ref="B220" r:id="rId437" location="AFP_0003691"/>
+    <hyperlink ref="D220" r:id="rId438"/>
+    <hyperlink ref="B221" r:id="rId439" location="AFP_0003706"/>
+    <hyperlink ref="D221" r:id="rId440"/>
+    <hyperlink ref="B222" r:id="rId441" location="AFP_0003729"/>
+    <hyperlink ref="D222" r:id="rId442"/>
+    <hyperlink ref="B223" r:id="rId443" location="AFP_0003743"/>
+    <hyperlink ref="D223" r:id="rId444"/>
+    <hyperlink ref="B224" r:id="rId445" location="AFP_0003770"/>
+    <hyperlink ref="D224" r:id="rId446"/>
+    <hyperlink ref="B225" r:id="rId447" location="AFR_0001219"/>
+    <hyperlink ref="D225" r:id="rId448"/>
+    <hyperlink ref="B226" r:id="rId449" location="AFP_0003779"/>
+    <hyperlink ref="D226" r:id="rId450"/>
+    <hyperlink ref="B227" r:id="rId451" location="AFQ_0000005"/>
+    <hyperlink ref="D227" r:id="rId452"/>
+    <hyperlink ref="B228" r:id="rId453" location="AFQ_0000065"/>
+    <hyperlink ref="D228" r:id="rId454"/>
+    <hyperlink ref="B229" r:id="rId455" location="AFQ_0000252"/>
+    <hyperlink ref="D229" r:id="rId456"/>
+    <hyperlink ref="B230" r:id="rId457" location="AFQ_0000253"/>
+    <hyperlink ref="D230" r:id="rId458"/>
+    <hyperlink ref="B231" r:id="rId459" location="AFRE_0000001"/>
+    <hyperlink ref="D231" r:id="rId460"/>
+    <hyperlink ref="B232" r:id="rId461" location="AFRE_0000005"/>
+    <hyperlink ref="D232" r:id="rId462"/>
+    <hyperlink ref="B233" r:id="rId463" location="AFR_0000694"/>
+    <hyperlink ref="D233" r:id="rId464"/>
+    <hyperlink ref="B234" r:id="rId465" location="AFR_0001501"/>
+    <hyperlink ref="D234" r:id="rId466"/>
+    <hyperlink ref="B235" r:id="rId467" location="AFR_0000935"/>
+    <hyperlink ref="D235" r:id="rId468"/>
+    <hyperlink ref="B236" r:id="rId469" location="AFR_0000955"/>
+    <hyperlink ref="D236" r:id="rId470"/>
+    <hyperlink ref="B237" r:id="rId471" location="AFR_0000961"/>
+    <hyperlink ref="D237" r:id="rId472"/>
+    <hyperlink ref="B238" r:id="rId473" location="AFR_0000966"/>
+    <hyperlink ref="D238" r:id="rId474"/>
+    <hyperlink ref="B239" r:id="rId475" location="AFRL_0000019"/>
+    <hyperlink ref="D239" r:id="rId476"/>
+    <hyperlink ref="B240" r:id="rId477" location="AFR_0000984"/>
+    <hyperlink ref="D240" r:id="rId478"/>
+    <hyperlink ref="B241" r:id="rId479" location="AFR_0001111"/>
+    <hyperlink ref="D241" r:id="rId480"/>
+    <hyperlink ref="B242" r:id="rId481" location="AFR_0001142"/>
+    <hyperlink ref="D242" r:id="rId482"/>
+    <hyperlink ref="B243" r:id="rId483" location="AFRL_0000325"/>
+    <hyperlink ref="D243" r:id="rId484"/>
+    <hyperlink ref="B244" r:id="rId485" location="AFR_0001216"/>
+    <hyperlink ref="D244" r:id="rId486"/>
+    <hyperlink ref="B245" r:id="rId487" location="AFR_0001218"/>
+    <hyperlink ref="D245" r:id="rId488"/>
+    <hyperlink ref="B246" r:id="rId489" location="AFR_0001220"/>
+    <hyperlink ref="D246" r:id="rId490"/>
+    <hyperlink ref="B247" r:id="rId491" location="AFR_0001276"/>
+    <hyperlink ref="D247" r:id="rId492"/>
+    <hyperlink ref="B248" r:id="rId493" location="AFR_0001532"/>
+    <hyperlink ref="D248" r:id="rId494"/>
+    <hyperlink ref="B249" r:id="rId495" location="AFR_0001586"/>
+    <hyperlink ref="D249" r:id="rId496"/>
+    <hyperlink ref="B250" r:id="rId497" location="DataSet"/>
+    <hyperlink ref="D250" r:id="rId498"/>
+    <hyperlink ref="B251" r:id="rId499" location="AFRL_0000127"/>
+    <hyperlink ref="D251" r:id="rId500"/>
+    <hyperlink ref="B252" r:id="rId501" location="AFR_0001661"/>
+    <hyperlink ref="D252" r:id="rId502"/>
+    <hyperlink ref="B253" r:id="rId503" location="AFR_0001817"/>
+    <hyperlink ref="D253" r:id="rId504"/>
+    <hyperlink ref="B254" r:id="rId505" location="AFR_0001843"/>
+    <hyperlink ref="D254" r:id="rId506"/>
+    <hyperlink ref="B255" r:id="rId507" location="AFRL_0000157"/>
+    <hyperlink ref="D255" r:id="rId508"/>
+    <hyperlink ref="B256" r:id="rId509" location="AFR_0001880"/>
+    <hyperlink ref="D256" r:id="rId510"/>
+    <hyperlink ref="B257" r:id="rId511" location="AFR_0001881"/>
+    <hyperlink ref="D257" r:id="rId512"/>
+    <hyperlink ref="B258" r:id="rId513" location="AFR_0001918"/>
+    <hyperlink ref="D258" r:id="rId514"/>
+    <hyperlink ref="B259" r:id="rId515" location="AFRL_0000478"/>
+    <hyperlink ref="D259" r:id="rId516"/>
+    <hyperlink ref="B260" r:id="rId517" location="AFR_0001964"/>
+    <hyperlink ref="D260" r:id="rId518"/>
+    <hyperlink ref="B261" r:id="rId519" location="AFR_0002017"/>
+    <hyperlink ref="D261" r:id="rId520"/>
+    <hyperlink ref="B262" r:id="rId521" location="AFR_0002008"/>
+    <hyperlink ref="D262" r:id="rId522"/>
+    <hyperlink ref="B263" r:id="rId523" location="AFR_0002040"/>
+    <hyperlink ref="D263" r:id="rId524"/>
+    <hyperlink ref="B264" r:id="rId525" location="AFRL_0000508"/>
+    <hyperlink ref="D264" r:id="rId526"/>
+    <hyperlink ref="B265" r:id="rId527" location="AFR_0002208"/>
+    <hyperlink ref="D265" r:id="rId528"/>
+    <hyperlink ref="B266" r:id="rId529" location="AFRL_0000233"/>
+    <hyperlink ref="D266" r:id="rId530"/>
+    <hyperlink ref="B267" r:id="rId531" location="AFR_0002209"/>
+    <hyperlink ref="D267" r:id="rId532"/>
+    <hyperlink ref="B268" r:id="rId533" location="AFRL_0000321"/>
+    <hyperlink ref="D268" r:id="rId534"/>
+    <hyperlink ref="B269" r:id="rId535" location="AFR_0002210"/>
+    <hyperlink ref="D269" r:id="rId536"/>
+    <hyperlink ref="B270" r:id="rId537" location="AFRL_0000323"/>
+    <hyperlink ref="D270" r:id="rId538"/>
+    <hyperlink ref="B271" r:id="rId539" location="AFR_0002211"/>
+    <hyperlink ref="D271" r:id="rId540"/>
+    <hyperlink ref="B272" r:id="rId541" location="AFRL_0000322"/>
+    <hyperlink ref="D272" r:id="rId542"/>
+    <hyperlink ref="B273" r:id="rId543" location="AFRL_0000255"/>
+    <hyperlink ref="D273" r:id="rId544"/>
+    <hyperlink ref="B274" r:id="rId545" location="AFR_0002480"/>
+    <hyperlink ref="D274" r:id="rId546"/>
+    <hyperlink ref="B275" r:id="rId547" location="AFR_0002744"/>
+    <hyperlink ref="D275" r:id="rId548"/>
+    <hyperlink ref="B276" r:id="rId549" location="AFR_0002804"/>
+    <hyperlink ref="D276" r:id="rId550"/>
+    <hyperlink ref="B277" r:id="rId551" location="AFRL_0000022"/>
+    <hyperlink ref="D277" r:id="rId552"/>
+    <hyperlink ref="B278" r:id="rId553" location="AFRL_0000213"/>
+    <hyperlink ref="D278" r:id="rId554"/>
+    <hyperlink ref="B279" r:id="rId555" location="AFRL_0000219"/>
+    <hyperlink ref="D279" r:id="rId556"/>
+    <hyperlink ref="B280" r:id="rId557" location="AFRL_0000253"/>
+    <hyperlink ref="D280" r:id="rId558"/>
+    <hyperlink ref="B281" r:id="rId559" location="AFRL_0000258"/>
+    <hyperlink ref="D281" r:id="rId560"/>
+    <hyperlink ref="B282" r:id="rId561" location="AFRL_0000270"/>
+    <hyperlink ref="D282" r:id="rId562"/>
+    <hyperlink ref="B283" r:id="rId563" location="AFRL_0000340"/>
+    <hyperlink ref="D283" r:id="rId564"/>
+    <hyperlink ref="B284" r:id="rId565" location="AFRL_0000352"/>
+    <hyperlink ref="D284" r:id="rId566"/>
+    <hyperlink ref="B285" r:id="rId567" location="AFRL_0000370"/>
+    <hyperlink ref="D285" r:id="rId568"/>
+    <hyperlink ref="B286" r:id="rId569" location="AFRL_0000475"/>
+    <hyperlink ref="D286" r:id="rId570"/>
+    <hyperlink ref="B287" r:id="rId571" location="AFSP_0000001"/>
+    <hyperlink ref="D287" r:id="rId572"/>
+    <hyperlink ref="B288" r:id="rId573"/>
+    <hyperlink ref="D288" r:id="rId574"/>
+    <hyperlink ref="B289" r:id="rId575"/>
+    <hyperlink ref="D289" r:id="rId576"/>
+    <hyperlink ref="B290" r:id="rId577" location="Dimension"/>
+    <hyperlink ref="D290" r:id="rId578"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
